--- a/transact-sql/t-sql tutorial organization file.xlsx
+++ b/transact-sql/t-sql tutorial organization file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Documents\Extensive Enterprises\Mass Street University\Repos\MassStreetUniversity.github.io\src\transact-sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Documents\Extensive Enterprises\Mass Street University\Repos\code-tutorial-source\transact-sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC99B19-E092-4409-8D38-A3000EB5ED16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D77DFC8-C67E-44B7-BAF1-307992814160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26745" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lessons" sheetId="4" r:id="rId1"/>
@@ -23,11 +23,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lesson File Xref'!$A$1:$K$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Meta Tags'!$A$1:$F$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Meta Tags'!$A$1:$G$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Twitter Post Helper'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="264">
   <si>
     <t>Lesson Name</t>
   </si>
@@ -834,6 +833,9 @@
   </si>
   <si>
     <t>I show you how to take one of the most worthless functions in T-SQL and actually make it useful.</t>
+  </si>
+  <si>
+    <t>I'm going to show you how we all use math everyday with T-SQL.</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1219,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,11 +1308,11 @@
         <v>i-authors-note.html</v>
       </c>
       <c r="J2" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A2&amp;"/"&amp;I2</f>
+        <f t="shared" ref="J2:J33" si="4">"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A2&amp;"/"&amp;I2</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/i-authors-note.html</v>
       </c>
       <c r="K2" t="str">
-        <f>B2&amp;". &lt;a href="""&amp;A2&amp;"/"&amp;I2&amp;"""&gt;"&amp;C2&amp;"&lt;/a&gt;"</f>
+        <f t="shared" ref="K2:K33" si="5">B2&amp;". &lt;a href="""&amp;A2&amp;"/"&amp;I2&amp;"""&gt;"&amp;C2&amp;"&lt;/a&gt;"</f>
         <v>I. &lt;a href="preface/i-authors-note.html"&gt;A Note From The Author&lt;/a&gt;</v>
       </c>
     </row>
@@ -1339,19 +1341,19 @@
         <v>ii-tutorial-overview</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H7" si="4">E3&amp;"-"&amp;F3&amp;".ipynb"</f>
+        <f t="shared" ref="H3:H7" si="6">E3&amp;"-"&amp;F3&amp;".ipynb"</f>
         <v>ii-tutorial-overview.ipynb</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I7" si="5">E3&amp;"-"&amp;F3&amp;".html"</f>
+        <f t="shared" ref="I3:I7" si="7">E3&amp;"-"&amp;F3&amp;".html"</f>
         <v>ii-tutorial-overview.html</v>
       </c>
       <c r="J3" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A3&amp;"/"&amp;I3</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/ii-tutorial-overview.html</v>
       </c>
       <c r="K3" t="str">
-        <f>B3&amp;". &lt;a href="""&amp;A3&amp;"/"&amp;I3&amp;"""&gt;"&amp;C3&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>II. &lt;a href="preface/ii-tutorial-overview.html"&gt;Tutorial Overview&lt;/a&gt;</v>
       </c>
     </row>
@@ -1380,19 +1382,19 @@
         <v>iii-running-the-examples</v>
       </c>
       <c r="H4" t="str">
+        <f t="shared" si="6"/>
+        <v>iii-running-the-examples.ipynb</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="7"/>
+        <v>iii-running-the-examples.html</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="4"/>
-        <v>iii-running-the-examples.ipynb</v>
-      </c>
-      <c r="I4" t="str">
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/iii-running-the-examples.html</v>
+      </c>
+      <c r="K4" t="str">
         <f t="shared" si="5"/>
-        <v>iii-running-the-examples.html</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A4&amp;"/"&amp;I4</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/iii-running-the-examples.html</v>
-      </c>
-      <c r="K4" t="str">
-        <f>B4&amp;". &lt;a href="""&amp;A4&amp;"/"&amp;I4&amp;"""&gt;"&amp;C4&amp;"&lt;/a&gt;"</f>
         <v>III. &lt;a href="preface/iii-running-the-examples.html"&gt;Running The Examples&lt;/a&gt;</v>
       </c>
     </row>
@@ -1421,19 +1423,19 @@
         <v>iv-how-to-report-an-issue</v>
       </c>
       <c r="H5" t="str">
+        <f t="shared" si="6"/>
+        <v>iv-how-to-report-an-issue.ipynb</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="7"/>
+        <v>iv-how-to-report-an-issue.html</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="4"/>
-        <v>iv-how-to-report-an-issue.ipynb</v>
-      </c>
-      <c r="I5" t="str">
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/iv-how-to-report-an-issue.html</v>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="5"/>
-        <v>iv-how-to-report-an-issue.html</v>
-      </c>
-      <c r="J5" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A5&amp;"/"&amp;I5</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/iv-how-to-report-an-issue.html</v>
-      </c>
-      <c r="K5" t="str">
-        <f>B5&amp;". &lt;a href="""&amp;A5&amp;"/"&amp;I5&amp;"""&gt;"&amp;C5&amp;"&lt;/a&gt;"</f>
         <v>IV. &lt;a href="preface/iv-how-to-report-an-issue.html"&gt;How To Report An Issue&lt;/a&gt;</v>
       </c>
     </row>
@@ -1462,19 +1464,19 @@
         <v>v-student-lounge</v>
       </c>
       <c r="H6" t="str">
+        <f t="shared" si="6"/>
+        <v>v-student-lounge.ipynb</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="7"/>
+        <v>v-student-lounge.html</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="4"/>
-        <v>v-student-lounge.ipynb</v>
-      </c>
-      <c r="I6" t="str">
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/v-student-lounge.html</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="5"/>
-        <v>v-student-lounge.html</v>
-      </c>
-      <c r="J6" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A6&amp;"/"&amp;I6</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/v-student-lounge.html</v>
-      </c>
-      <c r="K6" t="str">
-        <f>B6&amp;". &lt;a href="""&amp;A6&amp;"/"&amp;I6&amp;"""&gt;"&amp;C6&amp;"&lt;/a&gt;"</f>
         <v>V. &lt;a href="preface/v-student-lounge.html"&gt;Join The MSU Community On Discord&lt;/a&gt;</v>
       </c>
     </row>
@@ -1503,23 +1505,23 @@
         <v>vi-supplimentary-material</v>
       </c>
       <c r="H7" t="str">
+        <f t="shared" si="6"/>
+        <v>vi-supplimentary-material.ipynb</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="7"/>
+        <v>vi-supplimentary-material.html</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="4"/>
-        <v>vi-supplimentary-material.ipynb</v>
-      </c>
-      <c r="I7" t="str">
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/vi-supplimentary-material.html</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="5"/>
-        <v>vi-supplimentary-material.html</v>
-      </c>
-      <c r="J7" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A7&amp;"/"&amp;I7</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/vi-supplimentary-material.html</v>
-      </c>
-      <c r="K7" t="str">
-        <f>B7&amp;". &lt;a href="""&amp;A7&amp;"/"&amp;I7&amp;"""&gt;"&amp;C7&amp;"&lt;/a&gt;"</f>
         <v>VI. &lt;a href="preface/vi-supplimentary-material.html"&gt;Supplimentery Material&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1530,22 +1532,22 @@
         <v>9</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:D39" si="6">"Lesson"&amp;" "&amp;B8&amp;"."&amp;" "&amp;C8</f>
+        <f t="shared" ref="D8:D39" si="8">"Lesson"&amp;" "&amp;B8&amp;"."&amp;" "&amp;C8</f>
         <v>Lesson 1. Obligatory Hello World</v>
       </c>
       <c r="E8" s="14" t="str">
-        <f t="shared" ref="E8:E39" si="7">IF(B8&lt;10,"0"&amp;B8,B8)</f>
+        <f t="shared" ref="E8:E39" si="9">IF(B8&lt;10,"0"&amp;B8,B8)</f>
         <v>01</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="str">
-        <f t="shared" ref="G8:G71" si="8">E8&amp;"-"&amp;F8</f>
+        <f t="shared" ref="G8:G71" si="10">E8&amp;"-"&amp;F8</f>
         <v>01-hello-world</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" ref="H8:H71" si="9">E8&amp;"-"&amp;F8&amp;".ipynb"</f>
+        <f t="shared" ref="H8:H71" si="11">E8&amp;"-"&amp;F8&amp;".ipynb"</f>
         <v>01-hello-world.ipynb</v>
       </c>
       <c r="I8" t="str">
@@ -1553,15 +1555,15 @@
         <v>hello-world.html</v>
       </c>
       <c r="J8" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A8&amp;"/"&amp;I8</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/hello-world.html</v>
       </c>
       <c r="K8" t="str">
-        <f>B8&amp;". &lt;a href="""&amp;A8&amp;"/"&amp;I8&amp;"""&gt;"&amp;C8&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>1. &lt;a href="basic/hello-world.html"&gt;Obligatory Hello World&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1572,11 +1574,11 @@
         <v>63</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 2. Code Comments</v>
       </c>
       <c r="E9" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1591,19 +1593,19 @@
         <v>02-code-comments.ipynb</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" ref="I9:I72" si="10">F9&amp;".html"</f>
+        <f t="shared" ref="I9:I72" si="12">F9&amp;".html"</f>
         <v>code-comments.html</v>
       </c>
       <c r="J9" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A9&amp;"/"&amp;I9</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/code-comments.html</v>
       </c>
       <c r="K9" t="str">
-        <f>B9&amp;". &lt;a href="""&amp;A9&amp;"/"&amp;I9&amp;"""&gt;"&amp;C9&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>2. &lt;a href="basic/code-comments.html"&gt;Code Comments&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1614,11 +1616,11 @@
         <v>58</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 3. Basic Syntax</v>
       </c>
       <c r="E10" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>03</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1633,19 +1635,19 @@
         <v>03-basic-syntax.ipynb</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>basic-syntax.html</v>
       </c>
       <c r="J10" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A10&amp;"/"&amp;I10</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/basic-syntax.html</v>
       </c>
       <c r="K10" t="str">
-        <f>B10&amp;". &lt;a href="""&amp;A10&amp;"/"&amp;I10&amp;"""&gt;"&amp;C10&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>3. &lt;a href="basic/basic-syntax.html"&gt;Basic Syntax&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1656,38 +1658,38 @@
         <v>91</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 4. Your First Query</v>
       </c>
       <c r="E11" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>04</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G11" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>04-your-first-query</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>04-your-first-query.ipynb</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>your-first-query.html</v>
       </c>
       <c r="J11" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A11&amp;"/"&amp;I11</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/your-first-query.html</v>
       </c>
       <c r="K11" t="str">
-        <f>B11&amp;". &lt;a href="""&amp;A11&amp;"/"&amp;I11&amp;"""&gt;"&amp;C11&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>4. &lt;a href="basic/your-first-query.html"&gt;Your First Query&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1698,38 +1700,38 @@
         <v>77</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 5. Filtering Data</v>
       </c>
       <c r="E12" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>05</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>05-filtering-data</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>05-filtering-data.ipynb</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>filtering-data.html</v>
       </c>
       <c r="J12" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A12&amp;"/"&amp;I12</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/filtering-data.html</v>
       </c>
       <c r="K12" t="str">
-        <f>B12&amp;". &lt;a href="""&amp;A12&amp;"/"&amp;I12&amp;"""&gt;"&amp;C12&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>5. &lt;a href="basic/filtering-data.html"&gt;Filtering Data&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1740,38 +1742,38 @@
         <v>83</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 6. Sorting Data</v>
       </c>
       <c r="E13" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>06</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>84</v>
       </c>
       <c r="G13" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>06-sorting-data</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>06-sorting-data.ipynb</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>sorting-data.html</v>
       </c>
       <c r="J13" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A13&amp;"/"&amp;I13</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/sorting-data.html</v>
       </c>
       <c r="K13" t="str">
-        <f>B13&amp;". &lt;a href="""&amp;A13&amp;"/"&amp;I13&amp;"""&gt;"&amp;C13&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>6. &lt;a href="basic/sorting-data.html"&gt;Sorting Data&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1782,38 +1784,38 @@
         <v>67</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 7. Complex Data Filtering</v>
       </c>
       <c r="E14" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>07</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>68</v>
       </c>
       <c r="G14" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>07-complex-data-filtering</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>07-complex-data-filtering.ipynb</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>complex-data-filtering.html</v>
       </c>
       <c r="J14" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A14&amp;"/"&amp;I14</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/complex-data-filtering.html</v>
       </c>
       <c r="K14" t="str">
-        <f>B14&amp;". &lt;a href="""&amp;A14&amp;"/"&amp;I14&amp;"""&gt;"&amp;C14&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>7. &lt;a href="basic/complex-data-filtering.html"&gt;Complex Data Filtering&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1824,38 +1826,38 @@
         <v>56</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 8. Aliases</v>
       </c>
       <c r="E15" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>08</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>08-aliases</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>08-aliases.ipynb</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>aliases.html</v>
       </c>
       <c r="J15" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A15&amp;"/"&amp;I15</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aliases.html</v>
       </c>
       <c r="K15" t="str">
-        <f>B15&amp;". &lt;a href="""&amp;A15&amp;"/"&amp;I15&amp;"""&gt;"&amp;C15&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>8. &lt;a href="basic/aliases.html"&gt;Aliases&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1866,38 +1868,38 @@
         <v>85</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 9. String Functions</v>
       </c>
       <c r="E16" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>09</v>
       </c>
       <c r="F16" t="s">
         <v>86</v>
       </c>
       <c r="G16" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>09-string-functions</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>09-string-functions.ipynb</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>string-functions.html</v>
       </c>
       <c r="J16" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A16&amp;"/"&amp;I16</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/string-functions.html</v>
       </c>
       <c r="K16" t="str">
-        <f>B16&amp;". &lt;a href="""&amp;A16&amp;"/"&amp;I16&amp;"""&gt;"&amp;C16&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>9. &lt;a href="basic/string-functions.html"&gt;String Functions&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1908,38 +1910,38 @@
         <v>60</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 10. Creating New Columns From Existing Data (Calculated Fields)</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10-calculated-fields</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10-calculated-fields.ipynb</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>calculated-fields.html</v>
       </c>
       <c r="J17" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A17&amp;"/"&amp;I17</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/calculated-fields.html</v>
       </c>
       <c r="K17" t="str">
-        <f>B17&amp;". &lt;a href="""&amp;A17&amp;"/"&amp;I17&amp;"""&gt;"&amp;C17&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>10. &lt;a href="basic/calculated-fields.html"&gt;Creating New Columns From Existing Data (Calculated Fields)&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1950,38 +1952,38 @@
         <v>119</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 11. Displaying Data Based On Conditions (Case Statement)</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11-case-statement</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11-case-statement.ipynb</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>case-statement.html</v>
       </c>
       <c r="J18" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A18&amp;"/"&amp;I18</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/case-statement.html</v>
       </c>
       <c r="K18" t="str">
-        <f>B18&amp;". &lt;a href="""&amp;A18&amp;"/"&amp;I18&amp;"""&gt;"&amp;C18&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>11. &lt;a href="basic/case-statement.html"&gt;Displaying Data Based On Conditions (Case Statement)&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1992,38 +1994,38 @@
         <v>52</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 12. Aggregate Functions</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12-aggregate-functions</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12-aggregate-functions.ipynb</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>aggregate-functions.html</v>
       </c>
       <c r="J19" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A19&amp;"/"&amp;I19</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregate-functions.html</v>
       </c>
       <c r="K19" t="str">
-        <f>B19&amp;". &lt;a href="""&amp;A19&amp;"/"&amp;I19&amp;"""&gt;"&amp;C19&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>12. &lt;a href="basic/aggregate-functions.html"&gt;Aggregate Functions&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -2034,38 +2036,38 @@
         <v>54</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 13. Grouping And Summarizing Data</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13-aggregating-data</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13-aggregating-data.ipynb</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>aggregating-data.html</v>
       </c>
       <c r="J20" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A20&amp;"/"&amp;I20</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregating-data.html</v>
       </c>
       <c r="K20" t="str">
-        <f>B20&amp;". &lt;a href="""&amp;A20&amp;"/"&amp;I20&amp;"""&gt;"&amp;C20&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>13. &lt;a href="basic/aggregating-data.html"&gt;Grouping And Summarizing Data&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2076,38 +2078,38 @@
         <v>79</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 14. Querying More Than One Table</v>
       </c>
       <c r="E21" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G21" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14-joining-tables</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14-joining-tables.ipynb</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>joining-tables.html</v>
       </c>
       <c r="J21" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A21&amp;"/"&amp;I21</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/joining-tables.html</v>
       </c>
       <c r="K21" t="str">
-        <f>B21&amp;". &lt;a href="""&amp;A21&amp;"/"&amp;I21&amp;"""&gt;"&amp;C21&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>14. &lt;a href="basic/joining-tables.html"&gt;Querying More Than One Table&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2118,38 +2120,38 @@
         <v>65</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 15. Combining Queries</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15-combining-queries</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15-combining-queries.ipynb</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>combining-queries.html</v>
       </c>
       <c r="J22" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A22&amp;"/"&amp;I22</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/combining-queries.html</v>
       </c>
       <c r="K22" t="str">
-        <f>B22&amp;". &lt;a href="""&amp;A22&amp;"/"&amp;I22&amp;"""&gt;"&amp;C22&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>15. &lt;a href="basic/combining-queries.html"&gt;Combining Queries&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2160,38 +2162,38 @@
         <v>87</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 16. Subqueries</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G23" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16-subqueries</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16-subqueries.ipynb</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>subqueries.html</v>
       </c>
       <c r="J23" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A23&amp;"/"&amp;I23</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/subqueries.html</v>
       </c>
       <c r="K23" t="str">
-        <f>B23&amp;". &lt;a href="""&amp;A23&amp;"/"&amp;I23&amp;"""&gt;"&amp;C23&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>16. &lt;a href="basic/subqueries.html"&gt;Subqueries&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2202,38 +2204,38 @@
         <v>69</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 17. Creating Data</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>70</v>
       </c>
       <c r="G24" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17-creating-data</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17-creating-data.ipynb</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>creating-data.html</v>
       </c>
       <c r="J24" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A24&amp;"/"&amp;I24</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/creating-data.html</v>
       </c>
       <c r="K24" t="str">
-        <f>B24&amp;". &lt;a href="""&amp;A24&amp;"/"&amp;I24&amp;"""&gt;"&amp;C24&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>17. &lt;a href="basic/creating-data.html"&gt;Creating Data&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2244,38 +2246,38 @@
         <v>89</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 18. Updating Data</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18-updating-data</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18-updating-data.ipynb</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>updating-data.html</v>
       </c>
       <c r="J25" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A25&amp;"/"&amp;I25</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/updating-data.html</v>
       </c>
       <c r="K25" t="str">
-        <f>B25&amp;". &lt;a href="""&amp;A25&amp;"/"&amp;I25&amp;"""&gt;"&amp;C25&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>18. &lt;a href="basic/updating-data.html"&gt;Updating Data&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2286,38 +2288,38 @@
         <v>73</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 19. Deleting Data</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G26" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19-deleting-data</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19-deleting-data.ipynb</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>deleting-data.html</v>
       </c>
       <c r="J26" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A26&amp;"/"&amp;I26</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/deleting-data.html</v>
       </c>
       <c r="K26" t="str">
-        <f>B26&amp;". &lt;a href="""&amp;A26&amp;"/"&amp;I26&amp;"""&gt;"&amp;C26&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>19. &lt;a href="basic/deleting-data.html"&gt;Deleting Data&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2328,38 +2330,38 @@
         <v>71</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 20. Common Table Expressions (CTEs)</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>72</v>
       </c>
       <c r="G27" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>20-cte</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20-cte.ipynb</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>cte.html</v>
       </c>
       <c r="J27" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A27&amp;"/"&amp;I27</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/cte.html</v>
       </c>
       <c r="K27" t="str">
-        <f>B27&amp;". &lt;a href="""&amp;A27&amp;"/"&amp;I27&amp;"""&gt;"&amp;C27&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>20. &lt;a href="basic/cte.html"&gt;Common Table Expressions (CTEs)&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2370,38 +2372,38 @@
         <v>75</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 21. Derived Tables</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G28" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21-derived-tables</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21-derived-tables.ipynb</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>derived-tables.html</v>
       </c>
       <c r="J28" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A28&amp;"/"&amp;I28</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/derived-tables.html</v>
       </c>
       <c r="K28" t="str">
-        <f>B28&amp;". &lt;a href="""&amp;A28&amp;"/"&amp;I28&amp;"""&gt;"&amp;C28&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>21. &lt;a href="basic/derived-tables.html"&gt;Derived Tables&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2412,38 +2414,38 @@
         <v>81</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 22. Putting It All Together</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G29" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22-putting-it-all-together</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22-putting-it-all-together.ipynb</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>putting-it-all-together.html</v>
       </c>
       <c r="J29" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A29&amp;"/"&amp;I29</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/putting-it-all-together.html</v>
       </c>
       <c r="K29" t="str">
-        <f>B29&amp;". &lt;a href="""&amp;A29&amp;"/"&amp;I29&amp;"""&gt;"&amp;C29&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>22. &lt;a href="basic/putting-it-all-together.html"&gt;Putting It All Together&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2454,38 +2456,38 @@
         <v>123</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 23. Selecting Unique Values</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>168</v>
       </c>
       <c r="G30" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23-selecting-unique-values</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23-selecting-unique-values.ipynb</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>selecting-unique-values.html</v>
       </c>
       <c r="J30" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A30&amp;"/"&amp;I30</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/selecting-unique-values.html</v>
       </c>
       <c r="K30" t="str">
-        <f>B30&amp;". &lt;a href="""&amp;A30&amp;"/"&amp;I30&amp;"""&gt;"&amp;C30&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>23. &lt;a href="advanced/selecting-unique-values.html"&gt;Selecting Unique Values&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -2496,38 +2498,38 @@
         <v>124</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 24. Updating Data With A Join</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>169</v>
       </c>
       <c r="G31" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24-update-with-join</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24-update-with-join.ipynb</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>update-with-join.html</v>
       </c>
       <c r="J31" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A31&amp;"/"&amp;I31</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/update-with-join.html</v>
       </c>
       <c r="K31" t="str">
-        <f>B31&amp;". &lt;a href="""&amp;A31&amp;"/"&amp;I31&amp;"""&gt;"&amp;C31&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>24. &lt;a href="advanced/update-with-join.html"&gt;Updating Data With A Join&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2538,38 +2540,38 @@
         <v>125</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 25. Data Types</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>170</v>
       </c>
       <c r="G32" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25-data-types</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25-data-types.ipynb</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>data-types.html</v>
       </c>
       <c r="J32" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A32&amp;"/"&amp;I32</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/data-types.html</v>
       </c>
       <c r="K32" t="str">
-        <f>B32&amp;". &lt;a href="""&amp;A32&amp;"/"&amp;I32&amp;"""&gt;"&amp;C32&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>25. &lt;a href="advanced/data-types.html"&gt;Data Types&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2580,38 +2582,38 @@
         <v>126</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 26. Casting Data Types</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>171</v>
       </c>
       <c r="G33" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26-casting-data-types</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26-casting-data-types.ipynb</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>casting-data-types.html</v>
       </c>
       <c r="J33" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A33&amp;"/"&amp;I33</f>
+        <f t="shared" si="4"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/casting-data-types.html</v>
       </c>
       <c r="K33" t="str">
-        <f>B33&amp;". &lt;a href="""&amp;A33&amp;"/"&amp;I33&amp;"""&gt;"&amp;C33&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="5"/>
         <v>26. &lt;a href="advanced/casting-data-types.html"&gt;Casting Data Types&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2622,38 +2624,38 @@
         <v>127</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 27. Creating Tables</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G34" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27-creating-tables</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27-creating-tables.ipynb</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>creating-tables.html</v>
       </c>
       <c r="J34" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A34&amp;"/"&amp;I34</f>
+        <f t="shared" ref="J34:J65" si="13">"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A34&amp;"/"&amp;I34</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/creating-tables.html</v>
       </c>
       <c r="K34" t="str">
-        <f>B34&amp;". &lt;a href="""&amp;A34&amp;"/"&amp;I34&amp;"""&gt;"&amp;C34&amp;"&lt;/a&gt;"</f>
+        <f t="shared" ref="K34:K65" si="14">B34&amp;". &lt;a href="""&amp;A34&amp;"/"&amp;I34&amp;"""&gt;"&amp;C34&amp;"&lt;/a&gt;"</f>
         <v>27. &lt;a href="advanced/creating-tables.html"&gt;Creating Tables&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2664,38 +2666,38 @@
         <v>128</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 28. Altering Tables</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>173</v>
       </c>
       <c r="G35" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28-altering-tables</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28-altering-tables.ipynb</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>altering-tables.html</v>
       </c>
       <c r="J35" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A35&amp;"/"&amp;I35</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/altering-tables.html</v>
       </c>
       <c r="K35" t="str">
-        <f>B35&amp;". &lt;a href="""&amp;A35&amp;"/"&amp;I35&amp;"""&gt;"&amp;C35&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>28. &lt;a href="advanced/altering-tables.html"&gt;Altering Tables&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2706,38 +2708,38 @@
         <v>129</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 29. Dropping Tables</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>174</v>
       </c>
       <c r="G36" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29-dropping-tables</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>29-dropping-tables.ipynb</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>dropping-tables.html</v>
       </c>
       <c r="J36" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A36&amp;"/"&amp;I36</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dropping-tables.html</v>
       </c>
       <c r="K36" t="str">
-        <f>B36&amp;". &lt;a href="""&amp;A36&amp;"/"&amp;I36&amp;"""&gt;"&amp;C36&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>29. &lt;a href="advanced/dropping-tables.html"&gt;Dropping Tables&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2748,38 +2750,38 @@
         <v>130</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 30. Variables</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>175</v>
       </c>
       <c r="G37" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30-variables</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>30-variables.ipynb</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>variables.html</v>
       </c>
       <c r="J37" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A37&amp;"/"&amp;I37</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/variables.html</v>
       </c>
       <c r="K37" t="str">
-        <f>B37&amp;". &lt;a href="""&amp;A37&amp;"/"&amp;I37&amp;"""&gt;"&amp;C37&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>30. &lt;a href="advanced/variables.html"&gt;Variables&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2790,38 +2792,38 @@
         <v>131</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 31. Controlling Flow</v>
       </c>
       <c r="E38" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>176</v>
       </c>
       <c r="G38" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31-controlling-flow</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>31-controlling-flow.ipynb</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>controlling-flow.html</v>
       </c>
       <c r="J38" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A38&amp;"/"&amp;I38</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/controlling-flow.html</v>
       </c>
       <c r="K38" t="str">
-        <f>B38&amp;". &lt;a href="""&amp;A38&amp;"/"&amp;I38&amp;"""&gt;"&amp;C38&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>31. &lt;a href="advanced/controlling-flow.html"&gt;Controlling Flow&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2832,38 +2834,38 @@
         <v>132</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Lesson 32. Looping</v>
       </c>
       <c r="E39" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>177</v>
       </c>
       <c r="G39" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32-looping</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32-looping.ipynb</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>looping.html</v>
       </c>
       <c r="J39" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A39&amp;"/"&amp;I39</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/looping.html</v>
       </c>
       <c r="K39" t="str">
-        <f>B39&amp;". &lt;a href="""&amp;A39&amp;"/"&amp;I39&amp;"""&gt;"&amp;C39&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>32. &lt;a href="advanced/looping.html"&gt;Looping&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2874,38 +2876,38 @@
         <v>133</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" ref="D40:D71" si="11">"Lesson"&amp;" "&amp;B40&amp;"."&amp;" "&amp;C40</f>
+        <f t="shared" ref="D40:D71" si="15">"Lesson"&amp;" "&amp;B40&amp;"."&amp;" "&amp;C40</f>
         <v>Lesson 33. Error Processing</v>
       </c>
       <c r="E40" s="14">
-        <f t="shared" ref="E40:E75" si="12">IF(B40&lt;10,"0"&amp;B40,B40)</f>
+        <f t="shared" ref="E40:E75" si="16">IF(B40&lt;10,"0"&amp;B40,B40)</f>
         <v>33</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>178</v>
       </c>
       <c r="G40" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33-error-processing</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>33-error-processing.ipynb</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>error-processing.html</v>
       </c>
       <c r="J40" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A40&amp;"/"&amp;I40</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/error-processing.html</v>
       </c>
       <c r="K40" t="str">
-        <f>B40&amp;". &lt;a href="""&amp;A40&amp;"/"&amp;I40&amp;"""&gt;"&amp;C40&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>33. &lt;a href="advanced/error-processing.html"&gt;Error Processing&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2916,38 +2918,38 @@
         <v>134</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 34. Temporary Tables</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>34</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>179</v>
       </c>
       <c r="G41" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34-temp-tables</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>34-temp-tables.ipynb</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>temp-tables.html</v>
       </c>
       <c r="J41" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A41&amp;"/"&amp;I41</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/temp-tables.html</v>
       </c>
       <c r="K41" t="str">
-        <f>B41&amp;". &lt;a href="""&amp;A41&amp;"/"&amp;I41&amp;"""&gt;"&amp;C41&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>34. &lt;a href="advanced/temp-tables.html"&gt;Temporary Tables&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2958,38 +2960,38 @@
         <v>122</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 35. Views</v>
       </c>
       <c r="E42" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>180</v>
       </c>
       <c r="G42" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35-views</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>35-views.ipynb</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>views.html</v>
       </c>
       <c r="J42" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A42&amp;"/"&amp;I42</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/views.html</v>
       </c>
       <c r="K42" t="str">
-        <f>B42&amp;". &lt;a href="""&amp;A42&amp;"/"&amp;I42&amp;"""&gt;"&amp;C42&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>35. &lt;a href="advanced/views.html"&gt;Views&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -3000,38 +3002,38 @@
         <v>135</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 36. Indexed Views</v>
       </c>
       <c r="E43" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>181</v>
       </c>
       <c r="G43" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36-indexed-views</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>36-indexed-views.ipynb</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>indexed-views.html</v>
       </c>
       <c r="J43" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A43&amp;"/"&amp;I43</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/indexed-views.html</v>
       </c>
       <c r="K43" t="str">
-        <f>B43&amp;". &lt;a href="""&amp;A43&amp;"/"&amp;I43&amp;"""&gt;"&amp;C43&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>36. &lt;a href="advanced/indexed-views.html"&gt;Indexed Views&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3042,38 +3044,38 @@
         <v>136</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 37. User Defined Functions</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>182</v>
       </c>
       <c r="G44" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37-user-defined-functions</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37-user-defined-functions.ipynb</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>user-defined-functions.html</v>
       </c>
       <c r="J44" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A44&amp;"/"&amp;I44</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/user-defined-functions.html</v>
       </c>
       <c r="K44" t="str">
-        <f>B44&amp;". &lt;a href="""&amp;A44&amp;"/"&amp;I44&amp;"""&gt;"&amp;C44&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>37. &lt;a href="advanced/user-defined-functions.html"&gt;User Defined Functions&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3084,38 +3086,38 @@
         <v>137</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 38. Stored Procedures</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>38</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>183</v>
       </c>
       <c r="G45" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>38-stored-procedures</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>38-stored-procedures.ipynb</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>stored-procedures.html</v>
       </c>
       <c r="J45" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A45&amp;"/"&amp;I45</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/stored-procedures.html</v>
       </c>
       <c r="K45" t="str">
-        <f>B45&amp;". &lt;a href="""&amp;A45&amp;"/"&amp;I45&amp;"""&gt;"&amp;C45&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>38. &lt;a href="advanced/stored-procedures.html"&gt;Stored Procedures&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3126,38 +3128,38 @@
         <v>138</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 39. BULK INSERT</v>
       </c>
       <c r="E46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>184</v>
       </c>
       <c r="G46" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39-bulk-insert</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39-bulk-insert.ipynb</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>bulk-insert.html</v>
       </c>
       <c r="J46" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A46&amp;"/"&amp;I46</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/bulk-insert.html</v>
       </c>
       <c r="K46" t="str">
-        <f>B46&amp;". &lt;a href="""&amp;A46&amp;"/"&amp;I46&amp;"""&gt;"&amp;C46&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>39. &lt;a href="advanced/bulk-insert.html"&gt;BULK INSERT&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3168,38 +3170,38 @@
         <v>139</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 40. Loading Tables With MERGE</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>185</v>
       </c>
       <c r="G47" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40-loading-tables-with-merge</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>40-loading-tables-with-merge.ipynb</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>loading-tables-with-merge.html</v>
       </c>
       <c r="J47" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A47&amp;"/"&amp;I47</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/loading-tables-with-merge.html</v>
       </c>
       <c r="K47" t="str">
-        <f>B47&amp;". &lt;a href="""&amp;A47&amp;"/"&amp;I47&amp;"""&gt;"&amp;C47&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>40. &lt;a href="advanced/loading-tables-with-merge.html"&gt;Loading Tables With MERGE&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -3210,38 +3212,38 @@
         <v>140</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 41. Partitioning A Dataset</v>
       </c>
       <c r="E48" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>41</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>186</v>
       </c>
       <c r="G48" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41-partitioning-a-dataset</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>41-partitioning-a-dataset.ipynb</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>partitioning-a-dataset.html</v>
       </c>
       <c r="J48" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A48&amp;"/"&amp;I48</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/partitioning-a-dataset.html</v>
       </c>
       <c r="K48" t="str">
-        <f>B48&amp;". &lt;a href="""&amp;A48&amp;"/"&amp;I48&amp;"""&gt;"&amp;C48&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>41. &lt;a href="advanced/partitioning-a-dataset.html"&gt;Partitioning A Dataset&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -3252,38 +3254,38 @@
         <v>141</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 42. Pivoting Data</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>187</v>
       </c>
       <c r="G49" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42-pivoting-data</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42-pivoting-data.ipynb</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>pivoting-data.html</v>
       </c>
       <c r="J49" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A49&amp;"/"&amp;I49</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/pivoting-data.html</v>
       </c>
       <c r="K49" t="str">
-        <f>B49&amp;". &lt;a href="""&amp;A49&amp;"/"&amp;I49&amp;"""&gt;"&amp;C49&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>42. &lt;a href="advanced/pivoting-data.html"&gt;Pivoting Data&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -3294,38 +3296,38 @@
         <v>142</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 43. Dynamic SQL</v>
       </c>
       <c r="E50" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="F50" t="s">
         <v>188</v>
       </c>
       <c r="G50" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43-dynamic-sql</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>43-dynamic-sql.ipynb</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>dynamic-sql.html</v>
       </c>
       <c r="J50" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A50&amp;"/"&amp;I50</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dynamic-sql.html</v>
       </c>
       <c r="K50" t="str">
-        <f>B50&amp;". &lt;a href="""&amp;A50&amp;"/"&amp;I50&amp;"""&gt;"&amp;C50&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>43. &lt;a href="advanced/dynamic-sql.html"&gt;Dynamic SQL&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3336,34 +3338,34 @@
         <v>143</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 44. Cursors</v>
       </c>
       <c r="E51" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="F51" t="s">
         <v>189</v>
       </c>
       <c r="G51" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44-cursors</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44-cursors.ipynb</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>cursors.html</v>
       </c>
       <c r="J51" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A51&amp;"/"&amp;I51</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/cursors.html</v>
       </c>
       <c r="K51" t="str">
-        <f>B51&amp;". &lt;a href="""&amp;A51&amp;"/"&amp;I51&amp;"""&gt;"&amp;C51&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>44. &lt;a href="advanced/cursors.html"&gt;Cursors&lt;/a&gt;</v>
       </c>
     </row>
@@ -3378,34 +3380,34 @@
         <v>144</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 45. Listing All Tables In A SQL Server Database</v>
       </c>
       <c r="E52" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="F52" t="s">
         <v>190</v>
       </c>
       <c r="G52" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45-list-all-tables</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>45-list-all-tables.ipynb</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>list-all-tables.html</v>
       </c>
       <c r="J52" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A52&amp;"/"&amp;I52</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-tables.html</v>
       </c>
       <c r="K52" t="str">
-        <f>B52&amp;". &lt;a href="""&amp;A52&amp;"/"&amp;I52&amp;"""&gt;"&amp;C52&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>45. &lt;a href="solutions/list-all-tables.html"&gt;Listing All Tables In A SQL Server Database&lt;/a&gt;</v>
       </c>
     </row>
@@ -3420,34 +3422,34 @@
         <v>145</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 46. Listing All Columns In A SQL Server Database</v>
       </c>
       <c r="E53" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="F53" t="s">
         <v>191</v>
       </c>
       <c r="G53" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46-list-all-columns</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>46-list-all-columns.ipynb</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>list-all-columns.html</v>
       </c>
       <c r="J53" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A53&amp;"/"&amp;I53</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-columns.html</v>
       </c>
       <c r="K53" t="str">
-        <f>B53&amp;". &lt;a href="""&amp;A53&amp;"/"&amp;I53&amp;"""&gt;"&amp;C53&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>46. &lt;a href="solutions/list-all-columns.html"&gt;Listing All Columns In A SQL Server Database&lt;/a&gt;</v>
       </c>
     </row>
@@ -3462,34 +3464,34 @@
         <v>146</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 47. Pull Records From A Table At Random</v>
       </c>
       <c r="E54" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="F54" t="s">
         <v>192</v>
       </c>
       <c r="G54" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47-pull-random-records</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>47-pull-random-records.ipynb</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>pull-random-records.html</v>
       </c>
       <c r="J54" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A54&amp;"/"&amp;I54</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/pull-random-records.html</v>
       </c>
       <c r="K54" t="str">
-        <f>B54&amp;". &lt;a href="""&amp;A54&amp;"/"&amp;I54&amp;"""&gt;"&amp;C54&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>47. &lt;a href="solutions/pull-random-records.html"&gt;Pull Records From A Table At Random&lt;/a&gt;</v>
       </c>
     </row>
@@ -3504,34 +3506,34 @@
         <v>147</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 48. A Better Alternative To WITH (NOLOCK)</v>
       </c>
       <c r="E55" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="F55" t="s">
         <v>193</v>
       </c>
       <c r="G55" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>48-with-nolock-alternative</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>48-with-nolock-alternative.ipynb</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>with-nolock-alternative.html</v>
       </c>
       <c r="J55" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A55&amp;"/"&amp;I55</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/with-nolock-alternative.html</v>
       </c>
       <c r="K55" t="str">
-        <f>B55&amp;". &lt;a href="""&amp;A55&amp;"/"&amp;I55&amp;"""&gt;"&amp;C55&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>48. &lt;a href="solutions/with-nolock-alternative.html"&gt;A Better Alternative To WITH (NOLOCK)&lt;/a&gt;</v>
       </c>
     </row>
@@ -3546,34 +3548,34 @@
         <v>148</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 49. Boost Performance When Calling A Stored Proc From SSIS</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="F56" t="s">
         <v>194</v>
       </c>
       <c r="G56" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>49-boost-performance</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>49-boost-performance.ipynb</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>boost-performance.html</v>
       </c>
       <c r="J56" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A56&amp;"/"&amp;I56</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/boost-performance.html</v>
       </c>
       <c r="K56" t="str">
-        <f>B56&amp;". &lt;a href="""&amp;A56&amp;"/"&amp;I56&amp;"""&gt;"&amp;C56&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>49. &lt;a href="solutions/boost-performance.html"&gt;Boost Performance When Calling A Stored Proc From SSIS&lt;/a&gt;</v>
       </c>
     </row>
@@ -3588,34 +3590,34 @@
         <v>149</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 50. Setting Up Queries For Ablation Testing</v>
       </c>
       <c r="E57" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="F57" t="s">
         <v>195</v>
       </c>
       <c r="G57" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50-ablation-testing</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50-ablation-testing.ipynb</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>ablation-testing.html</v>
       </c>
       <c r="J57" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A57&amp;"/"&amp;I57</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/ablation-testing.html</v>
       </c>
       <c r="K57" t="str">
-        <f>B57&amp;". &lt;a href="""&amp;A57&amp;"/"&amp;I57&amp;"""&gt;"&amp;C57&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>50. &lt;a href="solutions/ablation-testing.html"&gt;Setting Up Queries For Ablation Testing&lt;/a&gt;</v>
       </c>
     </row>
@@ -3630,34 +3632,34 @@
         <v>150</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 51. Reduce Code And Save Time With Default Column Values</v>
       </c>
       <c r="E58" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
       <c r="F58" t="s">
         <v>196</v>
       </c>
       <c r="G58" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>51-default-column-values</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51-default-column-values.ipynb</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>default-column-values.html</v>
       </c>
       <c r="J58" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A58&amp;"/"&amp;I58</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/default-column-values.html</v>
       </c>
       <c r="K58" t="str">
-        <f>B58&amp;". &lt;a href="""&amp;A58&amp;"/"&amp;I58&amp;"""&gt;"&amp;C58&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>51. &lt;a href="solutions/default-column-values.html"&gt;Reduce Code And Save Time With Default Column Values&lt;/a&gt;</v>
       </c>
     </row>
@@ -3672,34 +3674,34 @@
         <v>151</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 52. Finding Duplicate Records In A Table</v>
       </c>
       <c r="E59" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="F59" t="s">
         <v>197</v>
       </c>
       <c r="G59" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>52-removing-dups</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>52-removing-dups.ipynb</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>removing-dups.html</v>
       </c>
       <c r="J59" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A59&amp;"/"&amp;I59</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/removing-dups.html</v>
       </c>
       <c r="K59" t="str">
-        <f>B59&amp;". &lt;a href="""&amp;A59&amp;"/"&amp;I59&amp;"""&gt;"&amp;C59&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>52. &lt;a href="solutions/removing-dups.html"&gt;Finding Duplicate Records In A Table&lt;/a&gt;</v>
       </c>
     </row>
@@ -3714,34 +3716,34 @@
         <v>152</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 53. Why You Cannot Have More Than One Clustered Index On A Table</v>
       </c>
       <c r="E60" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="F60" t="s">
         <v>198</v>
       </c>
       <c r="G60" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53-clustered-index</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>53-clustered-index.ipynb</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>clustered-index.html</v>
       </c>
       <c r="J60" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A60&amp;"/"&amp;I60</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/clustered-index.html</v>
       </c>
       <c r="K60" t="str">
-        <f>B60&amp;". &lt;a href="""&amp;A60&amp;"/"&amp;I60&amp;"""&gt;"&amp;C60&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>53. &lt;a href="solutions/clustered-index.html"&gt;Why You Cannot Have More Than One Clustered Index On A Table&lt;/a&gt;</v>
       </c>
     </row>
@@ -3756,34 +3758,34 @@
         <v>153</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 54. Converting Dates To YYYYMMDD</v>
       </c>
       <c r="E61" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="F61" t="s">
         <v>199</v>
       </c>
       <c r="G61" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54-convert-dates</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>54-convert-dates.ipynb</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>convert-dates.html</v>
       </c>
       <c r="J61" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A61&amp;"/"&amp;I61</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/convert-dates.html</v>
       </c>
       <c r="K61" t="str">
-        <f>B61&amp;". &lt;a href="""&amp;A61&amp;"/"&amp;I61&amp;"""&gt;"&amp;C61&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>54. &lt;a href="solutions/convert-dates.html"&gt;Converting Dates To YYYYMMDD&lt;/a&gt;</v>
       </c>
     </row>
@@ -3798,34 +3800,34 @@
         <v>154</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 55. Sending Notification Emails With T-SQL Without Using Hardcoded Email Addresses</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="F62" t="s">
         <v>200</v>
       </c>
       <c r="G62" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55-notification-emails</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>55-notification-emails.ipynb</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>notification-emails.html</v>
       </c>
       <c r="J62" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A62&amp;"/"&amp;I62</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/notification-emails.html</v>
       </c>
       <c r="K62" t="str">
-        <f>B62&amp;". &lt;a href="""&amp;A62&amp;"/"&amp;I62&amp;"""&gt;"&amp;C62&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>55. &lt;a href="solutions/notification-emails.html"&gt;Sending Notification Emails With T-SQL Without Using Hardcoded Email Addresses&lt;/a&gt;</v>
       </c>
     </row>
@@ -3840,34 +3842,34 @@
         <v>155</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 56. Troubleshooting Long Running Queries</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="F63" t="s">
         <v>201</v>
       </c>
       <c r="G63" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56-troubleshoot-queries</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>56-troubleshoot-queries.ipynb</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>troubleshoot-queries.html</v>
       </c>
       <c r="J63" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A63&amp;"/"&amp;I63</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/troubleshoot-queries.html</v>
       </c>
       <c r="K63" t="str">
-        <f>B63&amp;". &lt;a href="""&amp;A63&amp;"/"&amp;I63&amp;"""&gt;"&amp;C63&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>56. &lt;a href="solutions/troubleshoot-queries.html"&gt;Troubleshooting Long Running Queries&lt;/a&gt;</v>
       </c>
     </row>
@@ -3882,34 +3884,34 @@
         <v>156</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 57. Loading Large CSVs Into Data Warehouse Staging Tables</v>
       </c>
       <c r="E64" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="F64" t="s">
         <v>202</v>
       </c>
       <c r="G64" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>57-load-large-files</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>57-load-large-files.ipynb</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>load-large-files.html</v>
       </c>
       <c r="J64" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A64&amp;"/"&amp;I64</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-large-files.html</v>
       </c>
       <c r="K64" t="str">
-        <f>B64&amp;". &lt;a href="""&amp;A64&amp;"/"&amp;I64&amp;"""&gt;"&amp;C64&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>57. &lt;a href="solutions/load-large-files.html"&gt;Loading Large CSVs Into Data Warehouse Staging Tables&lt;/a&gt;</v>
       </c>
     </row>
@@ -3924,34 +3926,34 @@
         <v>157</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 58. The Only Bloody Good Reason To Use Cursors (AKA Moving Large Amounts Of Data Between Tables)</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>58</v>
       </c>
       <c r="F65" t="s">
         <v>203</v>
       </c>
       <c r="G65" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>58-only-use-for-cursors</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>58-only-use-for-cursors.ipynb</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>only-use-for-cursors.html</v>
       </c>
       <c r="J65" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A65&amp;"/"&amp;I65</f>
+        <f t="shared" si="13"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/only-use-for-cursors.html</v>
       </c>
       <c r="K65" t="str">
-        <f>B65&amp;". &lt;a href="""&amp;A65&amp;"/"&amp;I65&amp;"""&gt;"&amp;C65&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="14"/>
         <v>58. &lt;a href="solutions/only-use-for-cursors.html"&gt;The Only Bloody Good Reason To Use Cursors (AKA Moving Large Amounts Of Data Between Tables)&lt;/a&gt;</v>
       </c>
     </row>
@@ -3966,34 +3968,34 @@
         <v>158</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 59. Loading A Type II Slowly Changing Dimension With SQL Merge</v>
       </c>
       <c r="E66" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
       <c r="F66" t="s">
         <v>204</v>
       </c>
       <c r="G66" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>59-load-typeII-dimension</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>59-load-typeII-dimension.ipynb</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>load-typeII-dimension.html</v>
       </c>
       <c r="J66" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A66&amp;"/"&amp;I66</f>
+        <f t="shared" ref="J66:J97" si="17">"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A66&amp;"/"&amp;I66</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html</v>
       </c>
       <c r="K66" t="str">
-        <f>B66&amp;". &lt;a href="""&amp;A66&amp;"/"&amp;I66&amp;"""&gt;"&amp;C66&amp;"&lt;/a&gt;"</f>
+        <f t="shared" ref="K66:K75" si="18">B66&amp;". &lt;a href="""&amp;A66&amp;"/"&amp;I66&amp;"""&gt;"&amp;C66&amp;"&lt;/a&gt;"</f>
         <v>59. &lt;a href="solutions/load-typeII-dimension.html"&gt;Loading A Type II Slowly Changing Dimension With SQL Merge&lt;/a&gt;</v>
       </c>
     </row>
@@ -4008,34 +4010,34 @@
         <v>159</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 60. A Clearer Explanation Of The Parameters Of The Numeric Data Type</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="F67" t="s">
         <v>205</v>
       </c>
       <c r="G67" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60-numeric-parameters</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>60-numeric-parameters.ipynb</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>numeric-parameters.html</v>
       </c>
       <c r="J67" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A67&amp;"/"&amp;I67</f>
+        <f t="shared" si="17"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/numeric-parameters.html</v>
       </c>
       <c r="K67" t="str">
-        <f>B67&amp;". &lt;a href="""&amp;A67&amp;"/"&amp;I67&amp;"""&gt;"&amp;C67&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="18"/>
         <v>60. &lt;a href="solutions/numeric-parameters.html"&gt;A Clearer Explanation Of The Parameters Of The Numeric Data Type&lt;/a&gt;</v>
       </c>
     </row>
@@ -4050,34 +4052,34 @@
         <v>160</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 61. Why You Cannot Join On Null Values</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>61</v>
       </c>
       <c r="F68" t="s">
         <v>206</v>
       </c>
       <c r="G68" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>61-cant-join-on-null</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>61-cant-join-on-null.ipynb</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>cant-join-on-null.html</v>
       </c>
       <c r="J68" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A68&amp;"/"&amp;I68</f>
+        <f t="shared" si="17"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/cant-join-on-null.html</v>
       </c>
       <c r="K68" t="str">
-        <f>B68&amp;". &lt;a href="""&amp;A68&amp;"/"&amp;I68&amp;"""&gt;"&amp;C68&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="18"/>
         <v>61. &lt;a href="solutions/cant-join-on-null.html"&gt;Why You Cannot Join On Null Values&lt;/a&gt;</v>
       </c>
     </row>
@@ -4092,34 +4094,34 @@
         <v>161</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 62. A Deep Dive On How The Where Clause Functions</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>62</v>
       </c>
       <c r="F69" t="s">
         <v>207</v>
       </c>
       <c r="G69" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>62-where-clause-deep-dive</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>62-where-clause-deep-dive.ipynb</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>where-clause-deep-dive.html</v>
       </c>
       <c r="J69" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A69&amp;"/"&amp;I69</f>
+        <f t="shared" si="17"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/where-clause-deep-dive.html</v>
       </c>
       <c r="K69" t="str">
-        <f>B69&amp;". &lt;a href="""&amp;A69&amp;"/"&amp;I69&amp;"""&gt;"&amp;C69&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="18"/>
         <v>62. &lt;a href="solutions/where-clause-deep-dive.html"&gt;A Deep Dive On How The Where Clause Functions&lt;/a&gt;</v>
       </c>
     </row>
@@ -4134,34 +4136,34 @@
         <v>162</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 63. Using HASHBYTES() To Compare Character Strings</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>63</v>
       </c>
       <c r="F70" t="s">
         <v>208</v>
       </c>
       <c r="G70" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>63-hashbytes-for-string-comparison</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>63-hashbytes-for-string-comparison.ipynb</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>hashbytes-for-string-comparison.html</v>
       </c>
       <c r="J70" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A70&amp;"/"&amp;I70</f>
+        <f t="shared" si="17"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashbytes-for-string-comparison.html</v>
       </c>
       <c r="K70" t="str">
-        <f>B70&amp;". &lt;a href="""&amp;A70&amp;"/"&amp;I70&amp;"""&gt;"&amp;C70&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="18"/>
         <v>63. &lt;a href="solutions/hashbytes-for-string-comparison.html"&gt;Using HASHBYTES() To Compare Character Strings&lt;/a&gt;</v>
       </c>
     </row>
@@ -4176,34 +4178,34 @@
         <v>163</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Lesson 64. Using Pipe To Hash Multiple Columns For Matching</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
       <c r="F71" t="s">
         <v>209</v>
       </c>
       <c r="G71" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>64-hashing-multiple-columns</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>64-hashing-multiple-columns.ipynb</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>hashing-multiple-columns.html</v>
       </c>
       <c r="J71" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A71&amp;"/"&amp;I71</f>
+        <f t="shared" si="17"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashing-multiple-columns.html</v>
       </c>
       <c r="K71" t="str">
-        <f>B71&amp;". &lt;a href="""&amp;A71&amp;"/"&amp;I71&amp;"""&gt;"&amp;C71&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="18"/>
         <v>64. &lt;a href="solutions/hashing-multiple-columns.html"&gt;Using Pipe To Hash Multiple Columns For Matching&lt;/a&gt;</v>
       </c>
     </row>
@@ -4218,34 +4220,34 @@
         <v>164</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" ref="D72:D103" si="13">"Lesson"&amp;" "&amp;B72&amp;"."&amp;" "&amp;C72</f>
+        <f t="shared" ref="D72:D75" si="19">"Lesson"&amp;" "&amp;B72&amp;"."&amp;" "&amp;C72</f>
         <v>Lesson 65. Why People That Indent Code Drive Me Nuts (AKA A Recommended SQL Style Guide)</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>65</v>
       </c>
       <c r="F72" t="s">
         <v>210</v>
       </c>
       <c r="G72" s="7" t="str">
-        <f t="shared" ref="G72:G75" si="14">E72&amp;"-"&amp;F72</f>
+        <f t="shared" ref="G72:G75" si="20">E72&amp;"-"&amp;F72</f>
         <v>65-sql-style-guide</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" ref="H72:H75" si="15">E72&amp;"-"&amp;F72&amp;".ipynb"</f>
+        <f t="shared" ref="H72:H75" si="21">E72&amp;"-"&amp;F72&amp;".ipynb"</f>
         <v>65-sql-style-guide.ipynb</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>sql-style-guide.html</v>
       </c>
       <c r="J72" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A72&amp;"/"&amp;I72</f>
+        <f t="shared" si="17"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/sql-style-guide.html</v>
       </c>
       <c r="K72" t="str">
-        <f>B72&amp;". &lt;a href="""&amp;A72&amp;"/"&amp;I72&amp;"""&gt;"&amp;C72&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="18"/>
         <v>65. &lt;a href="solutions/sql-style-guide.html"&gt;Why People That Indent Code Drive Me Nuts (AKA A Recommended SQL Style Guide)&lt;/a&gt;</v>
       </c>
     </row>
@@ -4260,34 +4262,34 @@
         <v>165</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Lesson 66. How To Rapidly Stand Up A Data Warehouse From Scratch</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>66</v>
       </c>
       <c r="F73" t="s">
         <v>211</v>
       </c>
       <c r="G73" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>66-data-warehouse-standup</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>66-data-warehouse-standup.ipynb</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" ref="I73:I75" si="16">F73&amp;".html"</f>
+        <f t="shared" ref="I73:I75" si="22">F73&amp;".html"</f>
         <v>data-warehouse-standup.html</v>
       </c>
       <c r="J73" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A73&amp;"/"&amp;I73</f>
+        <f t="shared" si="17"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/data-warehouse-standup.html</v>
       </c>
       <c r="K73" t="str">
-        <f>B73&amp;". &lt;a href="""&amp;A73&amp;"/"&amp;I73&amp;"""&gt;"&amp;C73&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="18"/>
         <v>66. &lt;a href="solutions/data-warehouse-standup.html"&gt;How To Rapidly Stand Up A Data Warehouse From Scratch&lt;/a&gt;</v>
       </c>
     </row>
@@ -4302,34 +4304,34 @@
         <v>166</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Lesson 67. How To Pivot Data With T-SQL When Columns Are Not Predefined</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>67</v>
       </c>
       <c r="F74" t="s">
         <v>212</v>
       </c>
       <c r="G74" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>67-how-to-pivot-an-unknown-number-of-columns</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>67-how-to-pivot-an-unknown-number-of-columns.ipynb</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>how-to-pivot-an-unknown-number-of-columns.html</v>
       </c>
       <c r="J74" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A74&amp;"/"&amp;I74</f>
+        <f t="shared" si="17"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html</v>
       </c>
       <c r="K74" t="str">
-        <f>B74&amp;". &lt;a href="""&amp;A74&amp;"/"&amp;I74&amp;"""&gt;"&amp;C74&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="18"/>
         <v>67. &lt;a href="solutions/how-to-pivot-an-unknown-number-of-columns.html"&gt;How To Pivot Data With T-SQL When Columns Are Not Predefined&lt;/a&gt;</v>
       </c>
     </row>
@@ -4344,34 +4346,34 @@
         <v>167</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>Lesson 68. Prepopulating A Junk Dimension</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>68</v>
       </c>
       <c r="F75" t="s">
         <v>213</v>
       </c>
       <c r="G75" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>68-prepopulating-a-junk-dimension</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>68-prepopulating-a-junk-dimension.ipynb</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>prepopulating-a-junk-dimension.html</v>
       </c>
       <c r="J75" t="str">
-        <f>"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A75&amp;"/"&amp;I75</f>
+        <f t="shared" si="17"/>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/prepopulating-a-junk-dimension.html</v>
       </c>
       <c r="K75" t="str">
-        <f>B75&amp;". &lt;a href="""&amp;A75&amp;"/"&amp;I75&amp;"""&gt;"&amp;C75&amp;"&lt;/a&gt;"</f>
+        <f t="shared" si="18"/>
         <v>68. &lt;a href="solutions/prepopulating-a-junk-dimension.html"&gt;Prepopulating A Junk Dimension&lt;/a&gt;</v>
       </c>
     </row>
@@ -4379,6 +4381,8 @@
   <autoFilter ref="A1:K75" xr:uid="{C26BCB42-6FAD-4781-AC88-8DB659BD4328}">
     <filterColumn colId="0">
       <filters>
+        <filter val="advanced"/>
+        <filter val="basic"/>
         <filter val="solutions"/>
       </filters>
     </filterColumn>
@@ -4403,11 +4407,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD23D3F-AF4C-4515-B66E-A643AA8B200A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4417,12 +4421,13 @@
     <col min="3" max="3" width="131" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="135.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="135.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4438,11 +4443,14 @@
       <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Lesson File Xref'!A8</f>
         <v>basic</v>
@@ -4462,12 +4470,16 @@
         <f t="shared" ref="E2:E23" si="1">"In this lesson,"&amp;" "&amp;C2</f>
         <v>In this lesson, I teach you how to send output to the screen with T-SQL.</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" t="str">
+        <f>'Lesson File Xref'!J8</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/hello-world.html</v>
+      </c>
+      <c r="G2" s="16">
         <f>LEN(E2)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Lesson File Xref'!A9</f>
         <v>basic</v>
@@ -4487,12 +4499,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to write code comments with T-SQL.</v>
       </c>
-      <c r="F3" s="16">
-        <f t="shared" ref="F3:F23" si="2">LEN(E3)</f>
+      <c r="F3" t="str">
+        <f>'Lesson File Xref'!J9</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/code-comments.html</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" ref="G3:G23" si="2">LEN(E3)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Lesson File Xref'!A10</f>
         <v>basic</v>
@@ -4512,12 +4528,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you basic T-SQL syntax.</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" t="str">
+        <f>'Lesson File Xref'!J10</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/basic-syntax.html</v>
+      </c>
+      <c r="G4" s="16">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Lesson File Xref'!A11</f>
         <v>basic</v>
@@ -4537,12 +4557,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to write a basic query with T-SQL.</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" t="str">
+        <f>'Lesson File Xref'!J11</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/your-first-query.html</v>
+      </c>
+      <c r="G5" s="16">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Lesson File Xref'!A12</f>
         <v>basic</v>
@@ -4562,12 +4586,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to write a basic WHERE clause with T-SQL.</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" t="str">
+        <f>'Lesson File Xref'!J12</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/filtering-data.html</v>
+      </c>
+      <c r="G6" s="16">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Lesson File Xref'!A13</f>
         <v>basic</v>
@@ -4587,12 +4615,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to use the ORDER BY clause in T-SQL to sort your query results.</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" t="str">
+        <f>'Lesson File Xref'!J13</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/sorting-data.html</v>
+      </c>
+      <c r="G7" s="16">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Lesson File Xref'!A14</f>
         <v>basic</v>
@@ -4612,12 +4644,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to combine filter on more than one thing with your WHERE clause in T-SQL.</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" t="str">
+        <f>'Lesson File Xref'!J14</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/complex-data-filtering.html</v>
+      </c>
+      <c r="G8" s="16">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Lesson File Xref'!A15</f>
         <v>basic</v>
@@ -4637,12 +4673,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to rename query columns and tables for easier to write queries and user friendly result sets in T-SQL.</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" t="str">
+        <f>'Lesson File Xref'!J15</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aliases.html</v>
+      </c>
+      <c r="G9" s="16">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Lesson File Xref'!A16</f>
         <v>basic</v>
@@ -4662,12 +4702,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to manipulate string values in T-SQL.</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" t="str">
+        <f>'Lesson File Xref'!J16</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/string-functions.html</v>
+      </c>
+      <c r="G10" s="16">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Lesson File Xref'!A17</f>
         <v>basic</v>
@@ -4687,12 +4731,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to do math on existing columns to create new columns of data in T-SQL.</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" t="str">
+        <f>'Lesson File Xref'!J17</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/calculated-fields.html</v>
+      </c>
+      <c r="G11" s="16">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'Lesson File Xref'!A18</f>
         <v>basic</v>
@@ -4712,12 +4760,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to output columns of data based on specific conditions you specify in T-SQL.</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" t="str">
+        <f>'Lesson File Xref'!J18</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/case-statement.html</v>
+      </c>
+      <c r="G12" s="16">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'Lesson File Xref'!A19</f>
         <v>basic</v>
@@ -4737,12 +4789,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to roll up columns of numbers to find an aggregate value of the numbers in those columns with T-SQL.</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" t="str">
+        <f>'Lesson File Xref'!J19</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregate-functions.html</v>
+      </c>
+      <c r="G13" s="16">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Lesson File Xref'!A20</f>
         <v>basic</v>
@@ -4762,12 +4818,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, we build on the previous lesson by finding aggregate values in subsets of the total column by grouping the numbers into categories with T-SQL.</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" t="str">
+        <f>'Lesson File Xref'!J20</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregating-data.html</v>
+      </c>
+      <c r="G14" s="16">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Lesson File Xref'!A21</f>
         <v>basic</v>
@@ -4787,12 +4847,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I show you how to query more than one table by joining them together with T-SQL.</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" t="str">
+        <f>'Lesson File Xref'!J21</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/joining-tables.html</v>
+      </c>
+      <c r="G15" s="16">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'Lesson File Xref'!A22</f>
         <v>basic</v>
@@ -4812,12 +4876,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to combine more than one query into a single result set using UNION with T-SQL.</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" t="str">
+        <f>'Lesson File Xref'!J22</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/combining-queries.html</v>
+      </c>
+      <c r="G16" s="16">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'Lesson File Xref'!A23</f>
         <v>basic</v>
@@ -4837,12 +4905,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you the art of SQL Inception where you produce a result set by sticking  a query in a query.</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" t="str">
+        <f>'Lesson File Xref'!J23</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/subqueries.html</v>
+      </c>
+      <c r="G17" s="16">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Lesson File Xref'!A24</f>
         <v>basic</v>
@@ -4862,12 +4934,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to insert a small number of records into a table with T-SQL.</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" t="str">
+        <f>'Lesson File Xref'!J24</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/creating-data.html</v>
+      </c>
+      <c r="G18" s="16">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Lesson File Xref'!A25</f>
         <v>basic</v>
@@ -4887,12 +4963,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to update existing values in a table with T-SQL.</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" t="str">
+        <f>'Lesson File Xref'!J25</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/updating-data.html</v>
+      </c>
+      <c r="G19" s="16">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'Lesson File Xref'!A26</f>
         <v>basic</v>
@@ -4912,12 +4992,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how not to get fired because you accidentally deleted production data with T-SQL.</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" t="str">
+        <f>'Lesson File Xref'!J26</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/deleting-data.html</v>
+      </c>
+      <c r="G20" s="16">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'Lesson File Xref'!A27</f>
         <v>basic</v>
@@ -4937,12 +5021,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you how to encapsulate business logic with common table expressions in T-SQL.</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" t="str">
+        <f>'Lesson File Xref'!J27</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/cte.html</v>
+      </c>
+      <c r="G21" s="16">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Lesson File Xref'!A28</f>
         <v>basic</v>
@@ -4962,12 +5050,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I teach you the way wrong way to encapsulate business logic by using derived tables in T-SQL.</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" t="str">
+        <f>'Lesson File Xref'!J28</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/derived-tables.html</v>
+      </c>
+      <c r="G22" s="16">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Lesson File Xref'!A29</f>
         <v>basic</v>
@@ -4987,12 +5079,16 @@
         <f t="shared" si="1"/>
         <v>In this lesson, I show you how everything in the basic section can be used to develop sophisticated queries in T-SQL.</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" t="str">
+        <f>'Lesson File Xref'!J29</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/putting-it-all-together.html</v>
+      </c>
+      <c r="G23" s="16">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'Lesson File Xref'!A30</f>
         <v>advanced</v>
@@ -5009,15 +5105,19 @@
         <v>Lesson 23. Selecting Unique Values With T-SQL</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" ref="E24:E68" si="4">"In this lesson,"&amp;" "&amp;C24</f>
+        <f t="shared" ref="E24:E69" si="4">"In this lesson,"&amp;" "&amp;C24</f>
         <v>In this lesson, I show you how to select only unique values from a table.</v>
       </c>
-      <c r="F24" s="16">
-        <f t="shared" ref="F24:F68" si="5">LEN(E24)</f>
+      <c r="F24" t="str">
+        <f>'Lesson File Xref'!J30</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/selecting-unique-values.html</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" ref="G24:G68" si="5">LEN(E24)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'Lesson File Xref'!A31</f>
         <v>advanced</v>
@@ -5037,12 +5137,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to update data that requires that you join two or more tables in T-SQL.</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" t="str">
+        <f>'Lesson File Xref'!J31</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/update-with-join.html</v>
+      </c>
+      <c r="G25" s="16">
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'Lesson File Xref'!A32</f>
         <v>advanced</v>
@@ -5062,12 +5166,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, we'll have a quick discussion about data types in T-SQL.</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" t="str">
+        <f>'Lesson File Xref'!J32</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/data-types.html</v>
+      </c>
+      <c r="G26" s="16">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'Lesson File Xref'!A33</f>
         <v>advanced</v>
@@ -5087,12 +5195,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to convert a value from one data type to another.</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" t="str">
+        <f>'Lesson File Xref'!J33</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/casting-data-types.html</v>
+      </c>
+      <c r="G27" s="16">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'Lesson File Xref'!A34</f>
         <v>advanced</v>
@@ -5112,12 +5224,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to create tables in SQL Server with T-SQL.</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" t="str">
+        <f>'Lesson File Xref'!J34</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/creating-tables.html</v>
+      </c>
+      <c r="G28" s="16">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'Lesson File Xref'!A35</f>
         <v>advanced</v>
@@ -5137,12 +5253,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to make changes to tables in SQL Server with T-SQL.</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" t="str">
+        <f>'Lesson File Xref'!J35</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/altering-tables.html</v>
+      </c>
+      <c r="G29" s="16">
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'Lesson File Xref'!A36</f>
         <v>advanced</v>
@@ -5162,12 +5282,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you the easiest way to get fired from your job with T-SQL.</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" t="str">
+        <f>'Lesson File Xref'!J36</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dropping-tables.html</v>
+      </c>
+      <c r="G30" s="16">
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'Lesson File Xref'!A37</f>
         <v>advanced</v>
@@ -5187,12 +5311,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to create and use variables with T-SQL.</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" t="str">
+        <f>'Lesson File Xref'!J37</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/variables.html</v>
+      </c>
+      <c r="G31" s="16">
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'Lesson File Xref'!A38</f>
         <v>advanced</v>
@@ -5212,12 +5340,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to control the execution of your program with T-SQL.</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" t="str">
+        <f>'Lesson File Xref'!J38</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/controlling-flow.html</v>
+      </c>
+      <c r="G32" s="16">
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'Lesson File Xref'!A39</f>
         <v>advanced</v>
@@ -5237,12 +5369,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to write loops with T-SQL.</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" t="str">
+        <f>'Lesson File Xref'!J39</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/looping.html</v>
+      </c>
+      <c r="G33" s="16">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'Lesson File Xref'!A40</f>
         <v>advanced</v>
@@ -5262,12 +5398,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to catch errors with T-SQL.</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" t="str">
+        <f>'Lesson File Xref'!J40</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/error-processing.html</v>
+      </c>
+      <c r="G34" s="16">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'Lesson File Xref'!A41</f>
         <v>advanced</v>
@@ -5287,12 +5427,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to create working data tables in SQL Server with T-SQL.</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" t="str">
+        <f>'Lesson File Xref'!J41</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/temp-tables.html</v>
+      </c>
+      <c r="G35" s="16">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'Lesson File Xref'!A42</f>
         <v>advanced</v>
@@ -5312,12 +5456,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to create SQL statements that can be written once and called many times in T-SQL.</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" t="str">
+        <f>'Lesson File Xref'!J42</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/views.html</v>
+      </c>
+      <c r="G36" s="16">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>'Lesson File Xref'!A43</f>
         <v>advanced</v>
@@ -5337,12 +5485,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to create high performance views with T-SQL.</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" t="str">
+        <f>'Lesson File Xref'!J43</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/indexed-views.html</v>
+      </c>
+      <c r="G37" s="16">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'Lesson File Xref'!A44</f>
         <v>advanced</v>
@@ -5362,12 +5514,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to create your own functions in SQL Server with T-SQL.</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" t="str">
+        <f>'Lesson File Xref'!J44</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/user-defined-functions.html</v>
+      </c>
+      <c r="G38" s="16">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>'Lesson File Xref'!A45</f>
         <v>advanced</v>
@@ -5387,12 +5543,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to create high performance SQL statements that are actually compiled code in T-SQL.</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" t="str">
+        <f>'Lesson File Xref'!J45</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/stored-procedures.html</v>
+      </c>
+      <c r="G39" s="16">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>'Lesson File Xref'!A46</f>
         <v>advanced</v>
@@ -5412,12 +5572,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to rapidly load large amounts of data with T-SQL.</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" t="str">
+        <f>'Lesson File Xref'!J46</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/bulk-insert.html</v>
+      </c>
+      <c r="G40" s="16">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>'Lesson File Xref'!A47</f>
         <v>advanced</v>
@@ -5437,12 +5601,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you the most powerful SQL clause known to man in T-SQL.</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" t="str">
+        <f>'Lesson File Xref'!J47</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/loading-tables-with-merge.html</v>
+      </c>
+      <c r="G41" s="16">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>'Lesson File Xref'!A48</f>
         <v>advanced</v>
@@ -5462,12 +5630,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how you can find duplicate data automatically with T-SQL.</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" t="str">
+        <f>'Lesson File Xref'!J48</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/partitioning-a-dataset.html</v>
+      </c>
+      <c r="G42" s="16">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>'Lesson File Xref'!A49</f>
         <v>advanced</v>
@@ -5487,12 +5659,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you the most worthless clause in SQL with T-SQL.</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" t="str">
+        <f>'Lesson File Xref'!J49</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/pivoting-data.html</v>
+      </c>
+      <c r="G43" s="16">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>'Lesson File Xref'!A50</f>
         <v>advanced</v>
@@ -5512,12 +5688,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to do something you should never ever do in T-SQL.</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" t="str">
+        <f>'Lesson File Xref'!J50</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dynamic-sql.html</v>
+      </c>
+      <c r="G44" s="16">
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>'Lesson File Xref'!A51</f>
         <v>advanced</v>
@@ -5537,12 +5717,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how COBOL programmers write SQL in T-SQL.</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" t="str">
+        <f>'Lesson File Xref'!J51</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/cursors.html</v>
+      </c>
+      <c r="G45" s="16">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'Lesson File Xref'!A52</f>
         <v>solutions</v>
@@ -5562,12 +5746,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to list every table in a SQL Server database with T-SQL.</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" t="str">
+        <f>'Lesson File Xref'!J52</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-tables.html</v>
+      </c>
+      <c r="G46" s="16">
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'Lesson File Xref'!A53</f>
         <v>solutions</v>
@@ -5587,12 +5775,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to list all the columns in a SQL Server database with T-SQL.</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" t="str">
+        <f>'Lesson File Xref'!J53</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-columns.html</v>
+      </c>
+      <c r="G47" s="16">
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'Lesson File Xref'!A54</f>
         <v>solutions</v>
@@ -5612,12 +5804,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how pull records from a SQL Server table psudo randomly with T-SQL.</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" t="str">
+        <f>'Lesson File Xref'!J54</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/pull-random-records.html</v>
+      </c>
+      <c r="G48" s="16">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'Lesson File Xref'!A55</f>
         <v>solutions</v>
@@ -5637,12 +5833,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to globally set the locking on every table in your script with T-SQL.</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" t="str">
+        <f>'Lesson File Xref'!J55</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/with-nolock-alternative.html</v>
+      </c>
+      <c r="G49" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'Lesson File Xref'!A56</f>
         <v>solutions</v>
@@ -5662,12 +5862,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to speed up stored procs by reducing network traffic with T-SQL.</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" t="str">
+        <f>'Lesson File Xref'!J56</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/boost-performance.html</v>
+      </c>
+      <c r="G50" s="16">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'Lesson File Xref'!A57</f>
         <v>solutions</v>
@@ -5687,12 +5891,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to set up your queries for ablation testing with T-SQL.</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" t="str">
+        <f>'Lesson File Xref'!J57</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/ablation-testing.html</v>
+      </c>
+      <c r="G51" s="16">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>'Lesson File Xref'!A58</f>
         <v>solutions</v>
@@ -5712,12 +5920,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to set default values in columns with T-SQL.</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" t="str">
+        <f>'Lesson File Xref'!J58</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/default-column-values.html</v>
+      </c>
+      <c r="G52" s="16">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>'Lesson File Xref'!A59</f>
         <v>solutions</v>
@@ -5737,12 +5949,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I give you detailed instructions on how to find duplicate records in a SQL Server table with T-SQL.</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" t="str">
+        <f>'Lesson File Xref'!J59</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/removing-dups.html</v>
+      </c>
+      <c r="G53" s="16">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>'Lesson File Xref'!A60</f>
         <v>solutions</v>
@@ -5762,12 +5978,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I give you the most valuable pice of information I ever learned building databases in SQL Server with T-SQL.</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" t="str">
+        <f>'Lesson File Xref'!J60</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/clustered-index.html</v>
+      </c>
+      <c r="G54" s="16">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>'Lesson File Xref'!A61</f>
         <v>solutions</v>
@@ -5787,12 +6007,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to convert all your dates to YYYMMDD format so they can work with the primary key of your date dimension with T-SQL.</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" t="str">
+        <f>'Lesson File Xref'!J61</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/convert-dates.html</v>
+      </c>
+      <c r="G55" s="16">
         <f t="shared" si="5"/>
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>'Lesson File Xref'!A62</f>
         <v>solutions</v>
@@ -5812,12 +6036,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you a cool dev ops trick with T-SQL.</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" t="str">
+        <f>'Lesson File Xref'!J62</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/notification-emails.html</v>
+      </c>
+      <c r="G56" s="16">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>'Lesson File Xref'!A63</f>
         <v>solutions</v>
@@ -5837,12 +6065,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you to Jordi LaForge your long running queries with T-SQL.</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" t="str">
+        <f>'Lesson File Xref'!J63</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/troubleshoot-queries.html</v>
+      </c>
+      <c r="G57" s="16">
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>'Lesson File Xref'!A64</f>
         <v>solutions</v>
@@ -5862,12 +6094,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I give you detailed information on how to load large CSVs into a data warehouse really fast with T-SQL.</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" t="str">
+        <f>'Lesson File Xref'!J64</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-large-files.html</v>
+      </c>
+      <c r="G58" s="16">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>'Lesson File Xref'!A65</f>
         <v>solutions</v>
@@ -5887,12 +6123,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you the one and only time you can use cursors withtout risking being flogged by your manager with T-SQL.</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" t="str">
+        <f>'Lesson File Xref'!J65</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/only-use-for-cursors.html</v>
+      </c>
+      <c r="G59" s="16">
         <f t="shared" si="5"/>
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>'Lesson File Xref'!A66</f>
         <v>solutions</v>
@@ -5912,12 +6152,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you the power of this fully armed and operational SQL statement with T-SQL.</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" t="str">
+        <f>'Lesson File Xref'!J66</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html</v>
+      </c>
+      <c r="G60" s="16">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>'Lesson File Xref'!A67</f>
         <v>solutions</v>
@@ -5937,12 +6181,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I break it down Barney style with the numeric data type with T-SQL.</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" t="str">
+        <f>'Lesson File Xref'!J67</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/numeric-parameters.html</v>
+      </c>
+      <c r="G61" s="16">
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>'Lesson File Xref'!A68</f>
         <v>solutions</v>
@@ -5962,12 +6210,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to avoid the n00b trap of trying to join on NULL values with T-SQL.</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" t="str">
+        <f>'Lesson File Xref'!J68</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/cant-join-on-null.html</v>
+      </c>
+      <c r="G62" s="16">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>'Lesson File Xref'!A69</f>
         <v>solutions</v>
@@ -5987,12 +6239,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, we get deep in the weeds on how the WHERE clause functions in T-SQL.</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" t="str">
+        <f>'Lesson File Xref'!J69</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/where-clause-deep-dive.html</v>
+      </c>
+      <c r="G63" s="16">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>'Lesson File Xref'!A70</f>
         <v>solutions</v>
@@ -6012,12 +6268,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you a more efficient way to determine if two strings are the same with T-SQL.</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" t="str">
+        <f>'Lesson File Xref'!J70</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashbytes-for-string-comparison.html</v>
+      </c>
+      <c r="G64" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>'Lesson File Xref'!A71</f>
         <v>solutions</v>
@@ -6037,12 +6297,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, we hit the pipe. Not the crack pipe. The character pipe. I show you how use pipe to properly hash more than one column of information with T-SQL.</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" t="str">
+        <f>'Lesson File Xref'!J71</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashing-multiple-columns.html</v>
+      </c>
+      <c r="G65" s="16">
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>'Lesson File Xref'!A72</f>
         <v>solutions</v>
@@ -6062,12 +6326,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you the quickest way to catch side eye from me with T-SQL.</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" t="str">
+        <f>'Lesson File Xref'!J72</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/sql-style-guide.html</v>
+      </c>
+      <c r="G66" s="16">
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>'Lesson File Xref'!A73</f>
         <v>solutions</v>
@@ -6087,12 +6355,16 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I do a bit of gratuitous self promotion because I'm kind of a big deal with T-SQL in SQL Server.</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" t="str">
+        <f>'Lesson File Xref'!J73</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/data-warehouse-standup.html</v>
+      </c>
+      <c r="G67" s="16">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>'Lesson File Xref'!A74</f>
         <v>solutions</v>
@@ -6112,20 +6384,54 @@
         <f t="shared" si="4"/>
         <v>In this lesson, I show you how to take one of the most worthless functions in T-SQL and actually make it useful.</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" t="str">
+        <f>'Lesson File Xref'!J74</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html</v>
+      </c>
+      <c r="G68" s="16">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
     </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>'Lesson File Xref'!A75</f>
+        <v>solutions</v>
+      </c>
+      <c r="B69" t="str">
+        <f>'Lesson File Xref'!D75</f>
+        <v>Lesson 68. Prepopulating A Junk Dimension</v>
+      </c>
+      <c r="C69" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" ref="D69" si="6">B69&amp;" "&amp;"With T-SQL"</f>
+        <v>Lesson 68. Prepopulating A Junk Dimension With T-SQL</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="4"/>
+        <v>In this lesson, I'm going to show you how we all use math everyday with T-SQL.</v>
+      </c>
+      <c r="F69" t="str">
+        <f>'Lesson File Xref'!J75</f>
+        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/prepopulating-a-junk-dimension.html</v>
+      </c>
+      <c r="G69" s="16">
+        <f t="shared" ref="G69" si="7">LEN(E69)</f>
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F68" xr:uid="{8A84AEA1-0F49-446A-A8D0-2B97C4D402FE}">
+  <autoFilter ref="A1:G69" xr:uid="{8A84AEA1-0F49-446A-A8D0-2B97C4D402FE}">
     <filterColumn colId="0">
       <filters>
-        <filter val="advanced"/>
+        <filter val="solutions"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/transact-sql/t-sql tutorial organization file.xlsx
+++ b/transact-sql/t-sql tutorial organization file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Documents\Extensive Enterprises\Mass Street University\Repos\code-tutorial-source\transact-sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4da9f1820d624f37/Documents/Extensive Enterprises/Mass Street University/Repos/code-tutorial-source/transact-sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D77DFC8-C67E-44B7-BAF1-307992814160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{5D77DFC8-C67E-44B7-BAF1-307992814160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6873E71-1DA0-472A-BAD0-D58FA50FD4EA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lesson File Xref'!$A$1:$K$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Meta Tags'!$A$1:$G$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Twitter Post Helper'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Twitter Post Helper'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="265">
   <si>
     <t>Lesson Name</t>
   </si>
@@ -836,6 +837,9 @@
   </si>
   <si>
     <t>I'm going to show you how we all use math everyday with T-SQL.</t>
+  </si>
+  <si>
+    <t>Final Post</t>
   </si>
 </sst>
 </file>
@@ -3991,7 +3995,7 @@
         <v>load-typeII-dimension.html</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" ref="J66:J97" si="17">"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A66&amp;"/"&amp;I66</f>
+        <f t="shared" ref="J66:J75" si="17">"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A66&amp;"/"&amp;I66</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html</v>
       </c>
       <c r="K66" t="str">
@@ -4409,9 +4413,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,7 +5092,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'Lesson File Xref'!A30</f>
         <v>advanced</v>
@@ -5117,7 +5121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'Lesson File Xref'!A31</f>
         <v>advanced</v>
@@ -5146,7 +5150,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'Lesson File Xref'!A32</f>
         <v>advanced</v>
@@ -5175,7 +5179,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'Lesson File Xref'!A33</f>
         <v>advanced</v>
@@ -5204,7 +5208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'Lesson File Xref'!A34</f>
         <v>advanced</v>
@@ -5233,7 +5237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'Lesson File Xref'!A35</f>
         <v>advanced</v>
@@ -5262,7 +5266,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'Lesson File Xref'!A36</f>
         <v>advanced</v>
@@ -5291,7 +5295,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'Lesson File Xref'!A37</f>
         <v>advanced</v>
@@ -5320,7 +5324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'Lesson File Xref'!A38</f>
         <v>advanced</v>
@@ -5349,7 +5353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'Lesson File Xref'!A39</f>
         <v>advanced</v>
@@ -5378,7 +5382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'Lesson File Xref'!A40</f>
         <v>advanced</v>
@@ -5407,7 +5411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'Lesson File Xref'!A41</f>
         <v>advanced</v>
@@ -5436,7 +5440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'Lesson File Xref'!A42</f>
         <v>advanced</v>
@@ -5465,7 +5469,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>'Lesson File Xref'!A43</f>
         <v>advanced</v>
@@ -5494,7 +5498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'Lesson File Xref'!A44</f>
         <v>advanced</v>
@@ -5523,7 +5527,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>'Lesson File Xref'!A45</f>
         <v>advanced</v>
@@ -5552,7 +5556,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>'Lesson File Xref'!A46</f>
         <v>advanced</v>
@@ -5581,7 +5585,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>'Lesson File Xref'!A47</f>
         <v>advanced</v>
@@ -5610,7 +5614,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>'Lesson File Xref'!A48</f>
         <v>advanced</v>
@@ -5639,7 +5643,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>'Lesson File Xref'!A49</f>
         <v>advanced</v>
@@ -5668,7 +5672,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>'Lesson File Xref'!A50</f>
         <v>advanced</v>
@@ -5697,7 +5701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>'Lesson File Xref'!A51</f>
         <v>advanced</v>
@@ -5726,7 +5730,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'Lesson File Xref'!A52</f>
         <v>solutions</v>
@@ -5755,7 +5759,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'Lesson File Xref'!A53</f>
         <v>solutions</v>
@@ -5784,7 +5788,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'Lesson File Xref'!A54</f>
         <v>solutions</v>
@@ -5813,7 +5817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'Lesson File Xref'!A55</f>
         <v>solutions</v>
@@ -5842,7 +5846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'Lesson File Xref'!A56</f>
         <v>solutions</v>
@@ -5871,7 +5875,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'Lesson File Xref'!A57</f>
         <v>solutions</v>
@@ -5900,7 +5904,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>'Lesson File Xref'!A58</f>
         <v>solutions</v>
@@ -5929,7 +5933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>'Lesson File Xref'!A59</f>
         <v>solutions</v>
@@ -5958,7 +5962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>'Lesson File Xref'!A60</f>
         <v>solutions</v>
@@ -5987,7 +5991,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>'Lesson File Xref'!A61</f>
         <v>solutions</v>
@@ -6016,7 +6020,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>'Lesson File Xref'!A62</f>
         <v>solutions</v>
@@ -6045,7 +6049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>'Lesson File Xref'!A63</f>
         <v>solutions</v>
@@ -6074,7 +6078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>'Lesson File Xref'!A64</f>
         <v>solutions</v>
@@ -6103,7 +6107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>'Lesson File Xref'!A65</f>
         <v>solutions</v>
@@ -6132,7 +6136,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>'Lesson File Xref'!A66</f>
         <v>solutions</v>
@@ -6161,7 +6165,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>'Lesson File Xref'!A67</f>
         <v>solutions</v>
@@ -6190,7 +6194,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>'Lesson File Xref'!A68</f>
         <v>solutions</v>
@@ -6219,7 +6223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>'Lesson File Xref'!A69</f>
         <v>solutions</v>
@@ -6248,7 +6252,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>'Lesson File Xref'!A70</f>
         <v>solutions</v>
@@ -6277,7 +6281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>'Lesson File Xref'!A71</f>
         <v>solutions</v>
@@ -6306,7 +6310,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>'Lesson File Xref'!A72</f>
         <v>solutions</v>
@@ -6335,7 +6339,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>'Lesson File Xref'!A73</f>
         <v>solutions</v>
@@ -6364,7 +6368,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>'Lesson File Xref'!A74</f>
         <v>solutions</v>
@@ -6393,7 +6397,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>'Lesson File Xref'!A75</f>
         <v>solutions</v>
@@ -6426,7 +6430,7 @@
   <autoFilter ref="A1:G69" xr:uid="{8A84AEA1-0F49-446A-A8D0-2B97C4D402FE}">
     <filterColumn colId="0">
       <filters>
-        <filter val="solutions"/>
+        <filter val="advanced"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6449,10 +6453,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BF53C0-7C83-45CD-8021-9C20EB183433}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="F24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6463,9 +6467,10 @@
     <col min="4" max="4" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="145.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="109.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -6484,8 +6489,11 @@
       <c r="F1" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Lesson File Xref'!A8</f>
         <v>basic</v>
@@ -6499,19 +6507,25 @@
         <v>obligatory hello world</v>
       </c>
       <c r="D2" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B8&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #1, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B8&amp;","&amp;" we're going to talk about the inevitable"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 1, we're going to talk about the inevitable</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E60" si="0">D2&amp;" "&amp;C2&amp;"."</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #1, we're going to talk about obligatory hello world.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 1, we're going to talk about the inevitable obligatory hello world.</v>
       </c>
       <c r="F2" t="str">
         <f>'Lesson File Xref'!J8</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/hello-world.html</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G3" si="1">E2&amp;CHAR(10)&amp;CHAR(10)&amp;F2&amp;CHAR(10)</f>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 1, we're going to talk about the inevitable obligatory hello world.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/hello-world.html
+</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Lesson File Xref'!A9</f>
         <v>basic</v>
@@ -6525,19 +6539,25 @@
         <v>code comments</v>
       </c>
       <c r="D3" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B9&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #2, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B9&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 2, we're going to talk about</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #2, we're going to talk about code comments.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 2, we're going to talk about code comments.</v>
       </c>
       <c r="F3" t="str">
         <f>'Lesson File Xref'!J9</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/code-comments.html</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 2, we're going to talk about code comments.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/code-comments.html
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Lesson File Xref'!A10</f>
         <v>basic</v>
@@ -6551,19 +6571,25 @@
         <v>basic syntax</v>
       </c>
       <c r="D4" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B10&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #3, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B10&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 3, we're going to talk about</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #3, we're going to talk about basic syntax.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 3, we're going to talk about basic syntax.</v>
       </c>
       <c r="F4" t="str">
         <f>'Lesson File Xref'!J10</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/basic-syntax.html</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f>E4&amp;CHAR(10)&amp;CHAR(10)&amp;F4&amp;CHAR(10)</f>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 3, we're going to talk about basic syntax.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/basic-syntax.html
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Lesson File Xref'!A11</f>
         <v>basic</v>
@@ -6577,19 +6603,25 @@
         <v>your first query</v>
       </c>
       <c r="D5" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B11&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #4, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B11&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 4, we're going to talk about</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #4, we're going to talk about your first query.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 4, we're going to talk about your first query.</v>
       </c>
       <c r="F5" t="str">
         <f>'Lesson File Xref'!J11</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/your-first-query.html</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G68" si="2">E5&amp;CHAR(10)&amp;CHAR(10)&amp;F5&amp;CHAR(10)</f>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 4, we're going to talk about your first query.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/your-first-query.html
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Lesson File Xref'!A12</f>
         <v>basic</v>
@@ -6603,19 +6635,25 @@
         <v>filtering data</v>
       </c>
       <c r="D6" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B12&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #5, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B12&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 5, we're going to talk about</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #5, we're going to talk about filtering data.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 5, we're going to talk about filtering data.</v>
       </c>
       <c r="F6" t="str">
         <f>'Lesson File Xref'!J12</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/filtering-data.html</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 5, we're going to talk about filtering data.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/filtering-data.html
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Lesson File Xref'!A13</f>
         <v>basic</v>
@@ -6629,19 +6667,25 @@
         <v>sorting data</v>
       </c>
       <c r="D7" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B13&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #6, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B13&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 6, we're going to talk about</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #6, we're going to talk about sorting data.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 6, we're going to talk about sorting data.</v>
       </c>
       <c r="F7" t="str">
         <f>'Lesson File Xref'!J13</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/sorting-data.html</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 6, we're going to talk about sorting data.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/sorting-data.html
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Lesson File Xref'!A14</f>
         <v>basic</v>
@@ -6655,19 +6699,25 @@
         <v>complex data filtering</v>
       </c>
       <c r="D8" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B14&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #7, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B14&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 7, we're going to talk about</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #7, we're going to talk about complex data filtering.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 7, we're going to talk about complex data filtering.</v>
       </c>
       <c r="F8" t="str">
         <f>'Lesson File Xref'!J14</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/complex-data-filtering.html</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 7, we're going to talk about complex data filtering.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/complex-data-filtering.html
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Lesson File Xref'!A15</f>
         <v>basic</v>
@@ -6681,19 +6731,25 @@
         <v>aliases</v>
       </c>
       <c r="D9" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B15&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #8, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B15&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 8, we're going to talk about</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #8, we're going to talk about aliases.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 8, we're going to talk about aliases.</v>
       </c>
       <c r="F9" t="str">
         <f>'Lesson File Xref'!J15</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aliases.html</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 8, we're going to talk about aliases.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/aliases.html
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Lesson File Xref'!A16</f>
         <v>basic</v>
@@ -6707,19 +6763,25 @@
         <v>string functions</v>
       </c>
       <c r="D10" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B16&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #9, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B16&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 9, we're going to talk about</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #9, we're going to talk about string functions.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 9, we're going to talk about string functions.</v>
       </c>
       <c r="F10" t="str">
         <f>'Lesson File Xref'!J16</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/string-functions.html</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 9, we're going to talk about string functions.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/string-functions.html
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Lesson File Xref'!A17</f>
         <v>basic</v>
@@ -6733,19 +6795,25 @@
         <v>creating new columns from existing data (calculated fields)</v>
       </c>
       <c r="D11" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B17&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #10, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B17&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 10, we're going to talk about</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #10, we're going to talk about creating new columns from existing data (calculated fields).</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 10, we're going to talk about creating new columns from existing data (calculated fields).</v>
       </c>
       <c r="F11" t="str">
         <f>'Lesson File Xref'!J17</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/calculated-fields.html</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 10, we're going to talk about creating new columns from existing data (calculated fields).
+https://tutorials.massstreetuniversity.com/transact-sql/basic/calculated-fields.html
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'Lesson File Xref'!A18</f>
         <v>basic</v>
@@ -6759,19 +6827,25 @@
         <v>displaying data based on conditions (case statement)</v>
       </c>
       <c r="D12" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B18&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #11, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B18&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 11, we're going to talk about</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #11, we're going to talk about displaying data based on conditions (case statement).</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 11, we're going to talk about displaying data based on conditions (case statement).</v>
       </c>
       <c r="F12" t="str">
         <f>'Lesson File Xref'!J18</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/case-statement.html</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 11, we're going to talk about displaying data based on conditions (case statement).
+https://tutorials.massstreetuniversity.com/transact-sql/basic/case-statement.html
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'Lesson File Xref'!A19</f>
         <v>basic</v>
@@ -6785,19 +6859,25 @@
         <v>aggregate functions</v>
       </c>
       <c r="D13" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B19&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #12, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B19&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 12, we're going to talk about</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #12, we're going to talk about aggregate functions.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 12, we're going to talk about aggregate functions.</v>
       </c>
       <c r="F13" t="str">
         <f>'Lesson File Xref'!J19</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregate-functions.html</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 12, we're going to talk about aggregate functions.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregate-functions.html
+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Lesson File Xref'!A20</f>
         <v>basic</v>
@@ -6811,19 +6891,25 @@
         <v>grouping and summarizing data</v>
       </c>
       <c r="D14" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B20&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #13, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B20&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 13, we're going to talk about</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #13, we're going to talk about grouping and summarizing data.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 13, we're going to talk about grouping and summarizing data.</v>
       </c>
       <c r="F14" t="str">
         <f>'Lesson File Xref'!J20</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregating-data.html</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 13, we're going to talk about grouping and summarizing data.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregating-data.html
+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Lesson File Xref'!A21</f>
         <v>basic</v>
@@ -6837,19 +6923,25 @@
         <v>querying more than one table</v>
       </c>
       <c r="D15" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B21&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #14, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B21&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 14, we're going to talk about</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #14, we're going to talk about querying more than one table.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 14, we're going to talk about querying more than one table.</v>
       </c>
       <c r="F15" t="str">
         <f>'Lesson File Xref'!J21</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/joining-tables.html</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 14, we're going to talk about querying more than one table.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/joining-tables.html
+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'Lesson File Xref'!A22</f>
         <v>basic</v>
@@ -6863,19 +6955,25 @@
         <v>combining queries</v>
       </c>
       <c r="D16" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B22&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #15, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B22&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 15, we're going to talk about</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #15, we're going to talk about combining queries.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 15, we're going to talk about combining queries.</v>
       </c>
       <c r="F16" t="str">
         <f>'Lesson File Xref'!J22</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/combining-queries.html</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 15, we're going to talk about combining queries.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/combining-queries.html
+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'Lesson File Xref'!A23</f>
         <v>basic</v>
@@ -6889,19 +6987,25 @@
         <v>subqueries</v>
       </c>
       <c r="D17" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B23&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #16, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B23&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 16, we're going to talk about</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #16, we're going to talk about subqueries.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 16, we're going to talk about subqueries.</v>
       </c>
       <c r="F17" t="str">
         <f>'Lesson File Xref'!J23</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/subqueries.html</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 16, we're going to talk about subqueries.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/subqueries.html
+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Lesson File Xref'!A24</f>
         <v>basic</v>
@@ -6915,19 +7019,25 @@
         <v>creating data</v>
       </c>
       <c r="D18" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B24&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #17, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B24&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 17, we're going to talk about</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #17, we're going to talk about creating data.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 17, we're going to talk about creating data.</v>
       </c>
       <c r="F18" t="str">
         <f>'Lesson File Xref'!J24</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/creating-data.html</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 17, we're going to talk about creating data.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/creating-data.html
+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Lesson File Xref'!A25</f>
         <v>basic</v>
@@ -6941,19 +7051,25 @@
         <v>updating data</v>
       </c>
       <c r="D19" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B25&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #18, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B25&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 18, we're going to talk about</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #18, we're going to talk about updating data.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 18, we're going to talk about updating data.</v>
       </c>
       <c r="F19" t="str">
         <f>'Lesson File Xref'!J25</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/updating-data.html</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 18, we're going to talk about updating data.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/updating-data.html
+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'Lesson File Xref'!A26</f>
         <v>basic</v>
@@ -6967,19 +7083,25 @@
         <v>deleting data</v>
       </c>
       <c r="D20" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B26&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #19, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B26&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 19, we're going to talk about</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #19, we're going to talk about deleting data.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 19, we're going to talk about deleting data.</v>
       </c>
       <c r="F20" t="str">
         <f>'Lesson File Xref'!J26</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/deleting-data.html</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 19, we're going to talk about deleting data.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/deleting-data.html
+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'Lesson File Xref'!A27</f>
         <v>basic</v>
@@ -6993,19 +7115,25 @@
         <v>common table expressions (ctes)</v>
       </c>
       <c r="D21" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B27&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #20, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B27&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 20, we're going to talk about</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #20, we're going to talk about common table expressions (ctes).</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 20, we're going to talk about common table expressions (ctes).</v>
       </c>
       <c r="F21" t="str">
         <f>'Lesson File Xref'!J27</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/cte.html</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 20, we're going to talk about common table expressions (ctes).
+https://tutorials.massstreetuniversity.com/transact-sql/basic/cte.html
+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Lesson File Xref'!A28</f>
         <v>basic</v>
@@ -7019,19 +7147,25 @@
         <v>derived tables</v>
       </c>
       <c r="D22" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B28&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #21, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B28&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 21, we're going to talk about</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #21, we're going to talk about derived tables.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 21, we're going to talk about derived tables.</v>
       </c>
       <c r="F22" t="str">
         <f>'Lesson File Xref'!J28</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/derived-tables.html</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 21, we're going to talk about derived tables.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/derived-tables.html
+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Lesson File Xref'!A29</f>
         <v>basic</v>
@@ -7045,19 +7179,25 @@
         <v>putting it all together</v>
       </c>
       <c r="D23" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B29&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #22, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B29&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 22, we're going to talk about</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #22, we're going to talk about putting it all together.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 22, we're going to talk about putting it all together.</v>
       </c>
       <c r="F23" t="str">
         <f>'Lesson File Xref'!J29</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/putting-it-all-together.html</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 22, we're going to talk about putting it all together.
+https://tutorials.massstreetuniversity.com/transact-sql/basic/putting-it-all-together.html
+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'Lesson File Xref'!A30</f>
         <v>advanced</v>
@@ -7071,19 +7211,25 @@
         <v>selecting unique values</v>
       </c>
       <c r="D24" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B30&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #23, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B30&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 23, we're going to talk about</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #23, we're going to talk about selecting unique values.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 23, we're going to talk about selecting unique values.</v>
       </c>
       <c r="F24" t="str">
         <f>'Lesson File Xref'!J30</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/selecting-unique-values.html</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 23, we're going to talk about selecting unique values.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/selecting-unique-values.html
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>'Lesson File Xref'!A31</f>
         <v>advanced</v>
@@ -7097,19 +7243,25 @@
         <v>updating data with a join</v>
       </c>
       <c r="D25" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B31&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #24, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B31&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 24, we're going to talk about</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #24, we're going to talk about updating data with a join.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 24, we're going to talk about updating data with a join.</v>
       </c>
       <c r="F25" t="str">
         <f>'Lesson File Xref'!J31</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/update-with-join.html</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 24, we're going to talk about updating data with a join.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/update-with-join.html
+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'Lesson File Xref'!A32</f>
         <v>advanced</v>
@@ -7123,19 +7275,25 @@
         <v>data types</v>
       </c>
       <c r="D26" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B32&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #25, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B32&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 25, we're going to talk about</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #25, we're going to talk about data types.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 25, we're going to talk about data types.</v>
       </c>
       <c r="F26" t="str">
         <f>'Lesson File Xref'!J32</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/data-types.html</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 25, we're going to talk about data types.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/data-types.html
+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'Lesson File Xref'!A33</f>
         <v>advanced</v>
@@ -7149,19 +7307,25 @@
         <v>casting data types</v>
       </c>
       <c r="D27" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B33&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #26, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B33&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 26, we're going to talk about</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #26, we're going to talk about casting data types.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 26, we're going to talk about casting data types.</v>
       </c>
       <c r="F27" t="str">
         <f>'Lesson File Xref'!J33</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/casting-data-types.html</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 26, we're going to talk about casting data types.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/casting-data-types.html
+</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'Lesson File Xref'!A34</f>
         <v>advanced</v>
@@ -7175,19 +7339,25 @@
         <v>creating tables</v>
       </c>
       <c r="D28" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B34&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #27, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B34&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 27, we're going to talk about</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #27, we're going to talk about creating tables.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 27, we're going to talk about creating tables.</v>
       </c>
       <c r="F28" t="str">
         <f>'Lesson File Xref'!J34</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/creating-tables.html</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 27, we're going to talk about creating tables.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/creating-tables.html
+</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>'Lesson File Xref'!A35</f>
         <v>advanced</v>
@@ -7201,19 +7371,25 @@
         <v>altering tables</v>
       </c>
       <c r="D29" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B35&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #28, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B35&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 28, we're going to talk about</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #28, we're going to talk about altering tables.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 28, we're going to talk about altering tables.</v>
       </c>
       <c r="F29" t="str">
         <f>'Lesson File Xref'!J35</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/altering-tables.html</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 28, we're going to talk about altering tables.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/altering-tables.html
+</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'Lesson File Xref'!A36</f>
         <v>advanced</v>
@@ -7227,19 +7403,25 @@
         <v>dropping tables</v>
       </c>
       <c r="D30" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B36&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #29, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B36&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 29, we're going to talk about</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #29, we're going to talk about dropping tables.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 29, we're going to talk about dropping tables.</v>
       </c>
       <c r="F30" t="str">
         <f>'Lesson File Xref'!J36</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dropping-tables.html</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 29, we're going to talk about dropping tables.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/dropping-tables.html
+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'Lesson File Xref'!A37</f>
         <v>advanced</v>
@@ -7253,19 +7435,25 @@
         <v>variables</v>
       </c>
       <c r="D31" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B37&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #30, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B37&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 30, we're going to talk about</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #30, we're going to talk about variables.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 30, we're going to talk about variables.</v>
       </c>
       <c r="F31" t="str">
         <f>'Lesson File Xref'!J37</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/variables.html</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 30, we're going to talk about variables.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/variables.html
+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'Lesson File Xref'!A38</f>
         <v>advanced</v>
@@ -7279,19 +7467,25 @@
         <v>controlling flow</v>
       </c>
       <c r="D32" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B38&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #31, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B38&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 31, we're going to talk about</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #31, we're going to talk about controlling flow.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 31, we're going to talk about controlling flow.</v>
       </c>
       <c r="F32" t="str">
         <f>'Lesson File Xref'!J38</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/controlling-flow.html</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 31, we're going to talk about controlling flow.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/controlling-flow.html
+</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>'Lesson File Xref'!A39</f>
         <v>advanced</v>
@@ -7305,19 +7499,25 @@
         <v>looping</v>
       </c>
       <c r="D33" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B39&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #32, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B39&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 32, we're going to talk about</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #32, we're going to talk about looping.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 32, we're going to talk about looping.</v>
       </c>
       <c r="F33" t="str">
         <f>'Lesson File Xref'!J39</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/looping.html</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 32, we're going to talk about looping.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/looping.html
+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'Lesson File Xref'!A40</f>
         <v>advanced</v>
@@ -7331,19 +7531,25 @@
         <v>error processing</v>
       </c>
       <c r="D34" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B40&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #33, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B40&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 33, we're going to talk about</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #33, we're going to talk about error processing.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 33, we're going to talk about error processing.</v>
       </c>
       <c r="F34" t="str">
         <f>'Lesson File Xref'!J40</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/error-processing.html</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 33, we're going to talk about error processing.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/error-processing.html
+</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'Lesson File Xref'!A41</f>
         <v>advanced</v>
@@ -7357,19 +7563,25 @@
         <v>temporary tables</v>
       </c>
       <c r="D35" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B41&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #34, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B41&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 34, we're going to talk about</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #34, we're going to talk about temporary tables.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 34, we're going to talk about temporary tables.</v>
       </c>
       <c r="F35" t="str">
         <f>'Lesson File Xref'!J41</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/temp-tables.html</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 34, we're going to talk about temporary tables.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/temp-tables.html
+</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'Lesson File Xref'!A42</f>
         <v>advanced</v>
@@ -7383,19 +7595,25 @@
         <v>views</v>
       </c>
       <c r="D36" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B42&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #35, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B42&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 35, we're going to talk about</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #35, we're going to talk about views.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 35, we're going to talk about views.</v>
       </c>
       <c r="F36" t="str">
         <f>'Lesson File Xref'!J42</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/views.html</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 35, we're going to talk about views.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/views.html
+</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>'Lesson File Xref'!A43</f>
         <v>advanced</v>
@@ -7409,19 +7627,25 @@
         <v>indexed views</v>
       </c>
       <c r="D37" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B43&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #36, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B43&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 36, we're going to talk about</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #36, we're going to talk about indexed views.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 36, we're going to talk about indexed views.</v>
       </c>
       <c r="F37" t="str">
         <f>'Lesson File Xref'!J43</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/indexed-views.html</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 36, we're going to talk about indexed views.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/indexed-views.html
+</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'Lesson File Xref'!A44</f>
         <v>advanced</v>
@@ -7435,19 +7659,25 @@
         <v>user defined functions</v>
       </c>
       <c r="D38" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B44&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #37, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B44&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 37, we're going to talk about</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #37, we're going to talk about user defined functions.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 37, we're going to talk about user defined functions.</v>
       </c>
       <c r="F38" t="str">
         <f>'Lesson File Xref'!J44</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/user-defined-functions.html</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 37, we're going to talk about user defined functions.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/user-defined-functions.html
+</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>'Lesson File Xref'!A45</f>
         <v>advanced</v>
@@ -7461,19 +7691,25 @@
         <v>stored procedures</v>
       </c>
       <c r="D39" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B45&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #38, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B45&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 38, we're going to talk about</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #38, we're going to talk about stored procedures.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 38, we're going to talk about stored procedures.</v>
       </c>
       <c r="F39" t="str">
         <f>'Lesson File Xref'!J45</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/stored-procedures.html</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 38, we're going to talk about stored procedures.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/stored-procedures.html
+</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>'Lesson File Xref'!A46</f>
         <v>advanced</v>
@@ -7487,19 +7723,25 @@
         <v>bulk insert</v>
       </c>
       <c r="D40" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B46&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #39, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B46&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 39, we're going to talk about</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #39, we're going to talk about bulk insert.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 39, we're going to talk about bulk insert.</v>
       </c>
       <c r="F40" t="str">
         <f>'Lesson File Xref'!J46</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/bulk-insert.html</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 39, we're going to talk about bulk insert.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/bulk-insert.html
+</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>'Lesson File Xref'!A47</f>
         <v>advanced</v>
@@ -7513,19 +7755,25 @@
         <v>loading tables with merge</v>
       </c>
       <c r="D41" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B47&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #40, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B47&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 40, we're going to talk about</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #40, we're going to talk about loading tables with merge.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 40, we're going to talk about loading tables with merge.</v>
       </c>
       <c r="F41" t="str">
         <f>'Lesson File Xref'!J47</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/loading-tables-with-merge.html</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 40, we're going to talk about loading tables with merge.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/loading-tables-with-merge.html
+</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>'Lesson File Xref'!A48</f>
         <v>advanced</v>
@@ -7539,19 +7787,25 @@
         <v>partitioning a dataset</v>
       </c>
       <c r="D42" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B48&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #41, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B48&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 41, we're going to talk about</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #41, we're going to talk about partitioning a dataset.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 41, we're going to talk about partitioning a dataset.</v>
       </c>
       <c r="F42" t="str">
         <f>'Lesson File Xref'!J48</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/partitioning-a-dataset.html</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 41, we're going to talk about partitioning a dataset.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/partitioning-a-dataset.html
+</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>'Lesson File Xref'!A49</f>
         <v>advanced</v>
@@ -7565,19 +7819,25 @@
         <v>pivoting data</v>
       </c>
       <c r="D43" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B49&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #42, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B49&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 42, we're going to talk about</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #42, we're going to talk about pivoting data.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 42, we're going to talk about pivoting data.</v>
       </c>
       <c r="F43" t="str">
         <f>'Lesson File Xref'!J49</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/pivoting-data.html</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 42, we're going to talk about pivoting data.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/pivoting-data.html
+</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>'Lesson File Xref'!A50</f>
         <v>advanced</v>
@@ -7591,19 +7851,25 @@
         <v>dynamic sql</v>
       </c>
       <c r="D44" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B50&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #43, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B50&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 43, we're going to talk about</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #43, we're going to talk about dynamic sql.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 43, we're going to talk about dynamic sql.</v>
       </c>
       <c r="F44" t="str">
         <f>'Lesson File Xref'!J50</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dynamic-sql.html</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 43, we're going to talk about dynamic sql.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/dynamic-sql.html
+</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>'Lesson File Xref'!A51</f>
         <v>advanced</v>
@@ -7617,19 +7883,25 @@
         <v>cursors</v>
       </c>
       <c r="D45" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B51&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #44, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B51&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 44, we're going to talk about</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #44, we're going to talk about cursors.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 44, we're going to talk about cursors.</v>
       </c>
       <c r="F45" t="str">
         <f>'Lesson File Xref'!J51</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/cursors.html</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 44, we're going to talk about cursors.
+https://tutorials.massstreetuniversity.com/transact-sql/advanced/cursors.html
+</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'Lesson File Xref'!A52</f>
         <v>solutions</v>
@@ -7643,19 +7915,25 @@
         <v>listing all tables in a sql server database</v>
       </c>
       <c r="D46" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B52&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #45, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B52&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 45, we're going to talk about</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #45, we're going to talk about listing all tables in a sql server database.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 45, we're going to talk about listing all tables in a sql server database.</v>
       </c>
       <c r="F46" t="str">
         <f>'Lesson File Xref'!J52</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-tables.html</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 45, we're going to talk about listing all tables in a sql server database.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-tables.html
+</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'Lesson File Xref'!A53</f>
         <v>solutions</v>
@@ -7669,19 +7947,25 @@
         <v>listing all columns in a sql server database</v>
       </c>
       <c r="D47" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B53&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #46, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B53&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 46, we're going to talk about</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #46, we're going to talk about listing all columns in a sql server database.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 46, we're going to talk about listing all columns in a sql server database.</v>
       </c>
       <c r="F47" t="str">
         <f>'Lesson File Xref'!J53</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-columns.html</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 46, we're going to talk about listing all columns in a sql server database.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-columns.html
+</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'Lesson File Xref'!A54</f>
         <v>solutions</v>
@@ -7695,19 +7979,25 @@
         <v>pull records from a table at random</v>
       </c>
       <c r="D48" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B54&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #47, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B54&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 47, we're going to talk about</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #47, we're going to talk about pull records from a table at random.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 47, we're going to talk about pull records from a table at random.</v>
       </c>
       <c r="F48" t="str">
         <f>'Lesson File Xref'!J54</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/pull-random-records.html</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 47, we're going to talk about pull records from a table at random.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/pull-random-records.html
+</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'Lesson File Xref'!A55</f>
         <v>solutions</v>
@@ -7721,19 +8011,25 @@
         <v>a better alternative to with (nolock)</v>
       </c>
       <c r="D49" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B55&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #48, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B55&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 48, we're going to talk about</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #48, we're going to talk about a better alternative to with (nolock).</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 48, we're going to talk about a better alternative to with (nolock).</v>
       </c>
       <c r="F49" t="str">
         <f>'Lesson File Xref'!J55</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/with-nolock-alternative.html</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 48, we're going to talk about a better alternative to with (nolock).
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/with-nolock-alternative.html
+</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'Lesson File Xref'!A56</f>
         <v>solutions</v>
@@ -7747,19 +8043,25 @@
         <v>boost performance when calling a stored proc from ssis</v>
       </c>
       <c r="D50" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B56&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #49, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B56&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 49, we're going to talk about</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #49, we're going to talk about boost performance when calling a stored proc from ssis.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 49, we're going to talk about boost performance when calling a stored proc from ssis.</v>
       </c>
       <c r="F50" t="str">
         <f>'Lesson File Xref'!J56</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/boost-performance.html</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 49, we're going to talk about boost performance when calling a stored proc from ssis.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/boost-performance.html
+</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'Lesson File Xref'!A57</f>
         <v>solutions</v>
@@ -7773,19 +8075,25 @@
         <v>setting up queries for ablation testing</v>
       </c>
       <c r="D51" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B57&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #50, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B57&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 50, we're going to talk about</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #50, we're going to talk about setting up queries for ablation testing.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 50, we're going to talk about setting up queries for ablation testing.</v>
       </c>
       <c r="F51" t="str">
         <f>'Lesson File Xref'!J57</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/ablation-testing.html</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 50, we're going to talk about setting up queries for ablation testing.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/ablation-testing.html
+</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>'Lesson File Xref'!A58</f>
         <v>solutions</v>
@@ -7799,19 +8107,25 @@
         <v>reduce code and save time with default column values</v>
       </c>
       <c r="D52" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B58&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #51, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B58&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 51, we're going to talk about</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #51, we're going to talk about reduce code and save time with default column values.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 51, we're going to talk about reduce code and save time with default column values.</v>
       </c>
       <c r="F52" t="str">
         <f>'Lesson File Xref'!J58</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/default-column-values.html</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 51, we're going to talk about reduce code and save time with default column values.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/default-column-values.html
+</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>'Lesson File Xref'!A59</f>
         <v>solutions</v>
@@ -7825,19 +8139,25 @@
         <v>finding duplicate records in a table</v>
       </c>
       <c r="D53" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B59&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #52, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B59&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 52, we're going to talk about</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #52, we're going to talk about finding duplicate records in a table.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 52, we're going to talk about finding duplicate records in a table.</v>
       </c>
       <c r="F53" t="str">
         <f>'Lesson File Xref'!J59</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/removing-dups.html</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 52, we're going to talk about finding duplicate records in a table.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/removing-dups.html
+</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>'Lesson File Xref'!A60</f>
         <v>solutions</v>
@@ -7851,19 +8171,25 @@
         <v>why you cannot have more than one clustered index on a table</v>
       </c>
       <c r="D54" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B60&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #53, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B60&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 53, we're going to talk about</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #53, we're going to talk about why you cannot have more than one clustered index on a table.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 53, we're going to talk about why you cannot have more than one clustered index on a table.</v>
       </c>
       <c r="F54" t="str">
         <f>'Lesson File Xref'!J60</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/clustered-index.html</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 53, we're going to talk about why you cannot have more than one clustered index on a table.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/clustered-index.html
+</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>'Lesson File Xref'!A61</f>
         <v>solutions</v>
@@ -7877,19 +8203,25 @@
         <v>converting dates to yyyymmdd</v>
       </c>
       <c r="D55" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B61&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #54, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B61&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 54, we're going to talk about</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #54, we're going to talk about converting dates to yyyymmdd.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 54, we're going to talk about converting dates to yyyymmdd.</v>
       </c>
       <c r="F55" t="str">
         <f>'Lesson File Xref'!J61</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/convert-dates.html</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 54, we're going to talk about converting dates to yyyymmdd.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/convert-dates.html
+</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>'Lesson File Xref'!A62</f>
         <v>solutions</v>
@@ -7903,19 +8235,25 @@
         <v>sending notification emails with t-sql without using hardcoded email addresses</v>
       </c>
       <c r="D56" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B62&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #55, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B62&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 55, we're going to talk about</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #55, we're going to talk about sending notification emails with t-sql without using hardcoded email addresses.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 55, we're going to talk about sending notification emails with t-sql without using hardcoded email addresses.</v>
       </c>
       <c r="F56" t="str">
         <f>'Lesson File Xref'!J62</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/notification-emails.html</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 55, we're going to talk about sending notification emails with t-sql without using hardcoded email addresses.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/notification-emails.html
+</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>'Lesson File Xref'!A63</f>
         <v>solutions</v>
@@ -7929,19 +8267,25 @@
         <v>troubleshooting long running queries</v>
       </c>
       <c r="D57" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B63&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #56, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B63&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 56, we're going to talk about</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #56, we're going to talk about troubleshooting long running queries.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 56, we're going to talk about troubleshooting long running queries.</v>
       </c>
       <c r="F57" t="str">
         <f>'Lesson File Xref'!J63</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/troubleshoot-queries.html</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 56, we're going to talk about troubleshooting long running queries.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/troubleshoot-queries.html
+</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>'Lesson File Xref'!A64</f>
         <v>solutions</v>
@@ -7955,19 +8299,25 @@
         <v>loading large csvs into data warehouse staging tables</v>
       </c>
       <c r="D58" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B64&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #57, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B64&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 57, we're going to talk about</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #57, we're going to talk about loading large csvs into data warehouse staging tables.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 57, we're going to talk about loading large csvs into data warehouse staging tables.</v>
       </c>
       <c r="F58" t="str">
         <f>'Lesson File Xref'!J64</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-large-files.html</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 57, we're going to talk about loading large csvs into data warehouse staging tables.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-large-files.html
+</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>'Lesson File Xref'!A65</f>
         <v>solutions</v>
@@ -7981,19 +8331,25 @@
         <v>the only bloody good reason to use cursors (aka moving large amounts of data between tables)</v>
       </c>
       <c r="D59" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B65&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #58, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B65&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 58, we're going to talk about</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #58, we're going to talk about the only bloody good reason to use cursors (aka moving large amounts of data between tables).</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 58, we're going to talk about the only bloody good reason to use cursors (aka moving large amounts of data between tables).</v>
       </c>
       <c r="F59" t="str">
         <f>'Lesson File Xref'!J65</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/only-use-for-cursors.html</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 58, we're going to talk about the only bloody good reason to use cursors (aka moving large amounts of data between tables).
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/only-use-for-cursors.html
+</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>'Lesson File Xref'!A66</f>
         <v>solutions</v>
@@ -8007,19 +8363,25 @@
         <v>loading a type ii slowly changing dimension with sql merge</v>
       </c>
       <c r="D60" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B66&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #59, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B66&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 59, we're going to talk about</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #59, we're going to talk about loading a type ii slowly changing dimension with sql merge.</v>
+        <v>Here is your daily T-SQL lesson! Today in lesson 59, we're going to talk about loading a type ii slowly changing dimension with sql merge.</v>
       </c>
       <c r="F60" t="str">
         <f>'Lesson File Xref'!J66</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 59, we're going to talk about loading a type ii slowly changing dimension with sql merge.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html
+</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>'Lesson File Xref'!A67</f>
         <v>solutions</v>
@@ -8033,19 +8395,25 @@
         <v>a clearer explanation of the parameters of the numeric data type</v>
       </c>
       <c r="D61" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B67&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #60, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B67&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 60, we're going to talk about</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" ref="E61:E69" si="1">D61&amp;" "&amp;C61&amp;"."</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #60, we're going to talk about a clearer explanation of the parameters of the numeric data type.</v>
+        <f t="shared" ref="E61:E69" si="3">D61&amp;" "&amp;C61&amp;"."</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 60, we're going to talk about a clearer explanation of the parameters of the numeric data type.</v>
       </c>
       <c r="F61" t="str">
         <f>'Lesson File Xref'!J67</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/numeric-parameters.html</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 60, we're going to talk about a clearer explanation of the parameters of the numeric data type.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/numeric-parameters.html
+</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>'Lesson File Xref'!A68</f>
         <v>solutions</v>
@@ -8059,19 +8427,25 @@
         <v>why you cannot join on null values</v>
       </c>
       <c r="D62" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B68&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #61, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B68&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 61, we're going to talk about</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #61, we're going to talk about why you cannot join on null values.</v>
+        <f t="shared" si="3"/>
+        <v>Here is your daily T-SQL lesson! Today in lesson 61, we're going to talk about why you cannot join on null values.</v>
       </c>
       <c r="F62" t="str">
         <f>'Lesson File Xref'!J68</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/cant-join-on-null.html</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 61, we're going to talk about why you cannot join on null values.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/cant-join-on-null.html
+</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>'Lesson File Xref'!A69</f>
         <v>solutions</v>
@@ -8085,19 +8459,25 @@
         <v>a deep dive on how the where clause functions</v>
       </c>
       <c r="D63" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B69&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #62, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B69&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 62, we're going to talk about</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #62, we're going to talk about a deep dive on how the where clause functions.</v>
+        <f t="shared" si="3"/>
+        <v>Here is your daily T-SQL lesson! Today in lesson 62, we're going to talk about a deep dive on how the where clause functions.</v>
       </c>
       <c r="F63" t="str">
         <f>'Lesson File Xref'!J69</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/where-clause-deep-dive.html</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 62, we're going to talk about a deep dive on how the where clause functions.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/where-clause-deep-dive.html
+</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>'Lesson File Xref'!A70</f>
         <v>solutions</v>
@@ -8111,19 +8491,25 @@
         <v>using hashbytes() to compare character strings</v>
       </c>
       <c r="D64" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B70&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #63, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B70&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 63, we're going to talk about</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #63, we're going to talk about using hashbytes() to compare character strings.</v>
+        <f t="shared" si="3"/>
+        <v>Here is your daily T-SQL lesson! Today in lesson 63, we're going to talk about using hashbytes() to compare character strings.</v>
       </c>
       <c r="F64" t="str">
         <f>'Lesson File Xref'!J70</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashbytes-for-string-comparison.html</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 63, we're going to talk about using hashbytes() to compare character strings.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashbytes-for-string-comparison.html
+</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>'Lesson File Xref'!A71</f>
         <v>solutions</v>
@@ -8137,19 +8523,25 @@
         <v>using pipe to hash multiple columns for matching</v>
       </c>
       <c r="D65" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B71&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #64, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B71&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 64, we're going to talk about</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="1"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #64, we're going to talk about using pipe to hash multiple columns for matching.</v>
+        <f t="shared" si="3"/>
+        <v>Here is your daily T-SQL lesson! Today in lesson 64, we're going to talk about using pipe to hash multiple columns for matching.</v>
       </c>
       <c r="F65" t="str">
         <f>'Lesson File Xref'!J71</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashing-multiple-columns.html</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 64, we're going to talk about using pipe to hash multiple columns for matching.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashing-multiple-columns.html
+</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>'Lesson File Xref'!A72</f>
         <v>solutions</v>
@@ -8163,19 +8555,25 @@
         <v>why people that indent code drive me nuts (aka a recommended sql style guide)</v>
       </c>
       <c r="D66" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B72&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #65, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B72&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 65, we're going to talk about</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="1"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #65, we're going to talk about why people that indent code drive me nuts (aka a recommended sql style guide).</v>
+        <f t="shared" si="3"/>
+        <v>Here is your daily T-SQL lesson! Today in lesson 65, we're going to talk about why people that indent code drive me nuts (aka a recommended sql style guide).</v>
       </c>
       <c r="F66" t="str">
         <f>'Lesson File Xref'!J72</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/sql-style-guide.html</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 65, we're going to talk about why people that indent code drive me nuts (aka a recommended sql style guide).
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/sql-style-guide.html
+</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>'Lesson File Xref'!A73</f>
         <v>solutions</v>
@@ -8189,19 +8587,25 @@
         <v>how to rapidly stand up a data warehouse from scratch</v>
       </c>
       <c r="D67" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B73&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #66, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B73&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 66, we're going to talk about</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="1"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #66, we're going to talk about how to rapidly stand up a data warehouse from scratch.</v>
+        <f t="shared" si="3"/>
+        <v>Here is your daily T-SQL lesson! Today in lesson 66, we're going to talk about how to rapidly stand up a data warehouse from scratch.</v>
       </c>
       <c r="F67" t="str">
         <f>'Lesson File Xref'!J73</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/data-warehouse-standup.html</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 66, we're going to talk about how to rapidly stand up a data warehouse from scratch.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/data-warehouse-standup.html
+</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>'Lesson File Xref'!A74</f>
         <v>solutions</v>
@@ -8215,19 +8619,25 @@
         <v>how to pivot data with t-sql when columns are not predefined</v>
       </c>
       <c r="D68" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B74&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #67, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B74&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 67, we're going to talk about</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #67, we're going to talk about how to pivot data with t-sql when columns are not predefined.</v>
+        <f t="shared" si="3"/>
+        <v>Here is your daily T-SQL lesson! Today in lesson 67, we're going to talk about how to pivot data with t-sql when columns are not predefined.</v>
       </c>
       <c r="F68" t="str">
         <f>'Lesson File Xref'!J74</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 67, we're going to talk about how to pivot data with t-sql when columns are not predefined.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html
+</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>'Lesson File Xref'!A75</f>
         <v>solutions</v>
@@ -8241,20 +8651,26 @@
         <v>prepopulating a junk dimension</v>
       </c>
       <c r="D69" t="str">
-        <f>"Here is your daily T-SQL lesson! Today in lesson #"&amp;'Lesson File Xref'!B75&amp;","&amp;" we're going to talk about"</f>
-        <v>Here is your daily T-SQL lesson! Today in lesson #68, we're going to talk about</v>
+        <f>"Here is your daily T-SQL lesson! Today in lesson "&amp;'Lesson File Xref'!B75&amp;","&amp;" we're going to talk about"</f>
+        <v>Here is your daily T-SQL lesson! Today in lesson 68, we're going to talk about</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v>Here is your daily T-SQL lesson! Today in lesson #68, we're going to talk about prepopulating a junk dimension.</v>
+        <f t="shared" si="3"/>
+        <v>Here is your daily T-SQL lesson! Today in lesson 68, we're going to talk about prepopulating a junk dimension.</v>
       </c>
       <c r="F69" t="str">
         <f>'Lesson File Xref'!J75</f>
         <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/prepopulating-a-junk-dimension.html</v>
       </c>
+      <c r="G69" t="str">
+        <f t="shared" ref="G69" si="4">E69&amp;CHAR(10)&amp;CHAR(10)&amp;F69&amp;CHAR(10)</f>
+        <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 68, we're going to talk about prepopulating a junk dimension.
+https://tutorials.massstreetuniversity.com/transact-sql/solutions/prepopulating-a-junk-dimension.html
+</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{FBF59A64-DDD1-4C92-883B-8554F772110A}"/>
+  <autoFilter ref="A1:G1" xr:uid="{A9AF85E0-B40B-475A-A574-A9B5413A8FC7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/transact-sql/t-sql tutorial organization file.xlsx
+++ b/transact-sql/t-sql tutorial organization file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4da9f1820d624f37/Documents/Extensive Enterprises/Mass Street University/Repos/code-tutorial-source/transact-sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{5D77DFC8-C67E-44B7-BAF1-307992814160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6873E71-1DA0-472A-BAD0-D58FA50FD4EA}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{5D77DFC8-C67E-44B7-BAF1-307992814160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9872E7A9-2B4A-4536-8631-666710C6EEAD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30150" yWindow="1560" windowWidth="19590" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lessons" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Twitter Post Helper'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1220,13 +1219,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>I. &lt;a href="preface/i-authors-note.html"&gt;A Note From The Author&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>II. &lt;a href="preface/ii-tutorial-overview.html"&gt;Tutorial Overview&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1402,7 +1400,7 @@
         <v>III. &lt;a href="preface/iii-running-the-examples.html"&gt;Running The Examples&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1443,7 +1441,7 @@
         <v>IV. &lt;a href="preface/iv-how-to-report-an-issue.html"&gt;How To Report An Issue&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1482,7 @@
         <v>V. &lt;a href="preface/v-student-lounge.html"&gt;Join The MSU Community On Discord&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4382,15 +4380,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K75" xr:uid="{C26BCB42-6FAD-4781-AC88-8DB659BD4328}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="advanced"/>
-        <filter val="basic"/>
-        <filter val="solutions"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K75" xr:uid="{C26BCB42-6FAD-4781-AC88-8DB659BD4328}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -4410,12 +4400,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD23D3F-AF4C-4515-B66E-A643AA8B200A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4454,7 +4443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Lesson File Xref'!A8</f>
         <v>basic</v>
@@ -4483,7 +4472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Lesson File Xref'!A9</f>
         <v>basic</v>
@@ -4512,7 +4501,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Lesson File Xref'!A10</f>
         <v>basic</v>
@@ -4541,7 +4530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Lesson File Xref'!A11</f>
         <v>basic</v>
@@ -4570,7 +4559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'Lesson File Xref'!A12</f>
         <v>basic</v>
@@ -4599,7 +4588,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Lesson File Xref'!A13</f>
         <v>basic</v>
@@ -4628,7 +4617,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Lesson File Xref'!A14</f>
         <v>basic</v>
@@ -4657,7 +4646,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Lesson File Xref'!A15</f>
         <v>basic</v>
@@ -4686,7 +4675,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Lesson File Xref'!A16</f>
         <v>basic</v>
@@ -4715,7 +4704,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Lesson File Xref'!A17</f>
         <v>basic</v>
@@ -4744,7 +4733,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'Lesson File Xref'!A18</f>
         <v>basic</v>
@@ -4773,7 +4762,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'Lesson File Xref'!A19</f>
         <v>basic</v>
@@ -4802,7 +4791,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Lesson File Xref'!A20</f>
         <v>basic</v>
@@ -4831,7 +4820,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Lesson File Xref'!A21</f>
         <v>basic</v>
@@ -4860,7 +4849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>'Lesson File Xref'!A22</f>
         <v>basic</v>
@@ -4889,7 +4878,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'Lesson File Xref'!A23</f>
         <v>basic</v>
@@ -4918,7 +4907,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Lesson File Xref'!A24</f>
         <v>basic</v>
@@ -4947,7 +4936,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Lesson File Xref'!A25</f>
         <v>basic</v>
@@ -4976,7 +4965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>'Lesson File Xref'!A26</f>
         <v>basic</v>
@@ -5005,7 +4994,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>'Lesson File Xref'!A27</f>
         <v>basic</v>
@@ -5034,7 +5023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Lesson File Xref'!A28</f>
         <v>basic</v>
@@ -5063,7 +5052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Lesson File Xref'!A29</f>
         <v>basic</v>
@@ -5730,7 +5719,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>'Lesson File Xref'!A52</f>
         <v>solutions</v>
@@ -5759,7 +5748,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>'Lesson File Xref'!A53</f>
         <v>solutions</v>
@@ -5788,7 +5777,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>'Lesson File Xref'!A54</f>
         <v>solutions</v>
@@ -5817,7 +5806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>'Lesson File Xref'!A55</f>
         <v>solutions</v>
@@ -5846,7 +5835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>'Lesson File Xref'!A56</f>
         <v>solutions</v>
@@ -5875,7 +5864,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>'Lesson File Xref'!A57</f>
         <v>solutions</v>
@@ -5904,7 +5893,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>'Lesson File Xref'!A58</f>
         <v>solutions</v>
@@ -5933,7 +5922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>'Lesson File Xref'!A59</f>
         <v>solutions</v>
@@ -5962,7 +5951,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>'Lesson File Xref'!A60</f>
         <v>solutions</v>
@@ -5991,7 +5980,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>'Lesson File Xref'!A61</f>
         <v>solutions</v>
@@ -6020,7 +6009,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>'Lesson File Xref'!A62</f>
         <v>solutions</v>
@@ -6049,7 +6038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>'Lesson File Xref'!A63</f>
         <v>solutions</v>
@@ -6078,7 +6067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>'Lesson File Xref'!A64</f>
         <v>solutions</v>
@@ -6107,7 +6096,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>'Lesson File Xref'!A65</f>
         <v>solutions</v>
@@ -6136,7 +6125,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>'Lesson File Xref'!A66</f>
         <v>solutions</v>
@@ -6165,7 +6154,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>'Lesson File Xref'!A67</f>
         <v>solutions</v>
@@ -6194,7 +6183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>'Lesson File Xref'!A68</f>
         <v>solutions</v>
@@ -6223,7 +6212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>'Lesson File Xref'!A69</f>
         <v>solutions</v>
@@ -6252,7 +6241,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>'Lesson File Xref'!A70</f>
         <v>solutions</v>
@@ -6281,7 +6270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>'Lesson File Xref'!A71</f>
         <v>solutions</v>
@@ -6310,7 +6299,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>'Lesson File Xref'!A72</f>
         <v>solutions</v>
@@ -6339,7 +6328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>'Lesson File Xref'!A73</f>
         <v>solutions</v>
@@ -6368,7 +6357,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>'Lesson File Xref'!A74</f>
         <v>solutions</v>
@@ -6397,7 +6386,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>'Lesson File Xref'!A75</f>
         <v>solutions</v>
@@ -6427,13 +6416,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G69" xr:uid="{8A84AEA1-0F49-446A-A8D0-2B97C4D402FE}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="advanced"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G69" xr:uid="{8A84AEA1-0F49-446A-A8D0-2B97C4D402FE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -6455,8 +6438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BF53C0-7C83-45CD-8021-9C20EB183433}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="F24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6464,7 +6447,7 @@
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="145.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="109.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -8691,7 +8674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02720D5E-A20F-4CFA-8B9E-1EE48C4E0140}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>

--- a/transact-sql/t-sql tutorial organization file.xlsx
+++ b/transact-sql/t-sql tutorial organization file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4da9f1820d624f37/Documents/Extensive Enterprises/Mass Street University/Repos/code-tutorial-source/transact-sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{5D77DFC8-C67E-44B7-BAF1-307992814160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9872E7A9-2B4A-4536-8631-666710C6EEAD}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{5D77DFC8-C67E-44B7-BAF1-307992814160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0424EE8A-3B90-41D9-B659-5FD719DF70DC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30150" yWindow="1560" windowWidth="19590" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lessons" sheetId="4" r:id="rId1"/>
@@ -1221,10 +1221,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:C51"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,8 +1310,8 @@
         <v>i-authors-note.html</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J33" si="4">"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A2&amp;"/"&amp;I2</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/i-authors-note.html</v>
+        <f t="shared" ref="J2:J33" si="4">"https://learn.massstreet.net/transact-sql/"&amp;A2&amp;"/"&amp;I2</f>
+        <v>https://learn.massstreet.net/transact-sql/preface/i-authors-note.html</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K33" si="5">B2&amp;". &lt;a href="""&amp;A2&amp;"/"&amp;I2&amp;"""&gt;"&amp;C2&amp;"&lt;/a&gt;"</f>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/ii-tutorial-overview.html</v>
+        <v>https://learn.massstreet.net/transact-sql/preface/ii-tutorial-overview.html</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="5"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/iii-running-the-examples.html</v>
+        <v>https://learn.massstreet.net/transact-sql/preface/iii-running-the-examples.html</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="5"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/iv-how-to-report-an-issue.html</v>
+        <v>https://learn.massstreet.net/transact-sql/preface/iv-how-to-report-an-issue.html</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="5"/>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/v-student-lounge.html</v>
+        <v>https://learn.massstreet.net/transact-sql/preface/v-student-lounge.html</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="5"/>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/preface/vi-supplimentary-material.html</v>
+        <v>https://learn.massstreet.net/transact-sql/preface/vi-supplimentary-material.html</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="5"/>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/hello-world.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/hello-world.html</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="5"/>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/code-comments.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/code-comments.html</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="5"/>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/basic-syntax.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/basic-syntax.html</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="5"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/your-first-query.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/your-first-query.html</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="5"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/filtering-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/filtering-data.html</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="5"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/sorting-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/sorting-data.html</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="5"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/complex-data-filtering.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/complex-data-filtering.html</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="5"/>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aliases.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/aliases.html</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="5"/>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/string-functions.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/string-functions.html</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="5"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/calculated-fields.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/calculated-fields.html</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="5"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/case-statement.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/case-statement.html</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="5"/>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregate-functions.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/aggregate-functions.html</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="5"/>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregating-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/aggregating-data.html</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="5"/>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/joining-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/joining-tables.html</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="5"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/combining-queries.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/combining-queries.html</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="5"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/subqueries.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/subqueries.html</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="5"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/creating-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/creating-data.html</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="5"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/updating-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/updating-data.html</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="5"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="J26" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/deleting-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/deleting-data.html</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="5"/>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/cte.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/cte.html</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="5"/>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/derived-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/derived-tables.html</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="5"/>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/putting-it-all-together.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/putting-it-all-together.html</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="5"/>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/selecting-unique-values.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/selecting-unique-values.html</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="5"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/update-with-join.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/update-with-join.html</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="5"/>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/data-types.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/data-types.html</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="5"/>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="4"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/casting-data-types.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/casting-data-types.html</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="5"/>
@@ -2649,8 +2649,8 @@
         <v>creating-tables.html</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34:J65" si="13">"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A34&amp;"/"&amp;I34</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/creating-tables.html</v>
+        <f t="shared" ref="J34:J65" si="13">"https://learn.massstreet.net/transact-sql/"&amp;A34&amp;"/"&amp;I34</f>
+        <v>https://learn.massstreet.net/transact-sql/advanced/creating-tables.html</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" ref="K34:K65" si="14">B34&amp;". &lt;a href="""&amp;A34&amp;"/"&amp;I34&amp;"""&gt;"&amp;C34&amp;"&lt;/a&gt;"</f>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/altering-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/altering-tables.html</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="14"/>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dropping-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/dropping-tables.html</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="14"/>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/variables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/variables.html</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="14"/>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/controlling-flow.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/controlling-flow.html</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="14"/>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/looping.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/looping.html</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="14"/>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/error-processing.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/error-processing.html</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="14"/>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/temp-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/temp-tables.html</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="14"/>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/views.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/views.html</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="14"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="J43" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/indexed-views.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/indexed-views.html</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="14"/>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/user-defined-functions.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/user-defined-functions.html</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="14"/>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/stored-procedures.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/stored-procedures.html</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="14"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/bulk-insert.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/bulk-insert.html</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="14"/>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/loading-tables-with-merge.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/loading-tables-with-merge.html</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="14"/>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/partitioning-a-dataset.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/partitioning-a-dataset.html</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="14"/>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/pivoting-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/pivoting-data.html</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="14"/>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="J50" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dynamic-sql.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/dynamic-sql.html</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="14"/>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/cursors.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/cursors.html</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="14"/>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/list-all-tables.html</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="14"/>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-columns.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/list-all-columns.html</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="14"/>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/pull-random-records.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/pull-random-records.html</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="14"/>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/with-nolock-alternative.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/with-nolock-alternative.html</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="14"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/boost-performance.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/boost-performance.html</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="14"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/ablation-testing.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/ablation-testing.html</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="14"/>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/default-column-values.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/default-column-values.html</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="14"/>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/removing-dups.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/removing-dups.html</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="14"/>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/clustered-index.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/clustered-index.html</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="14"/>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="J61" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/convert-dates.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/convert-dates.html</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="14"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/notification-emails.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/notification-emails.html</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="14"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="J63" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/troubleshoot-queries.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/troubleshoot-queries.html</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="14"/>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="J64" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-large-files.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/load-large-files.html</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="14"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="J65" t="str">
         <f t="shared" si="13"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/only-use-for-cursors.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/only-use-for-cursors.html</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="14"/>
@@ -3993,8 +3993,8 @@
         <v>load-typeII-dimension.html</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" ref="J66:J75" si="17">"https://tutorials.massstreetuniversity.com/transact-sql/"&amp;A66&amp;"/"&amp;I66</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html</v>
+        <f t="shared" ref="J66:J75" si="17">"https://learn.massstreet.net/transact-sql/"&amp;A66&amp;"/"&amp;I66</f>
+        <v>https://learn.massstreet.net/transact-sql/solutions/load-typeII-dimension.html</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" ref="K66:K75" si="18">B66&amp;". &lt;a href="""&amp;A66&amp;"/"&amp;I66&amp;"""&gt;"&amp;C66&amp;"&lt;/a&gt;"</f>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="J67" t="str">
         <f t="shared" si="17"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/numeric-parameters.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/numeric-parameters.html</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="18"/>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="J68" t="str">
         <f t="shared" si="17"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/cant-join-on-null.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/cant-join-on-null.html</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="18"/>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="J69" t="str">
         <f t="shared" si="17"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/where-clause-deep-dive.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/where-clause-deep-dive.html</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="18"/>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="J70" t="str">
         <f t="shared" si="17"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashbytes-for-string-comparison.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/hashbytes-for-string-comparison.html</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="18"/>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="J71" t="str">
         <f t="shared" si="17"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashing-multiple-columns.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/hashing-multiple-columns.html</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="18"/>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="J72" t="str">
         <f t="shared" si="17"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/sql-style-guide.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/sql-style-guide.html</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="18"/>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="J73" t="str">
         <f t="shared" si="17"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/data-warehouse-standup.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/data-warehouse-standup.html</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="18"/>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" si="17"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="18"/>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="J75" t="str">
         <f t="shared" si="17"/>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/prepopulating-a-junk-dimension.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/prepopulating-a-junk-dimension.html</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="18"/>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="F2" t="str">
         <f>'Lesson File Xref'!J8</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/hello-world.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/hello-world.html</v>
       </c>
       <c r="G2" s="16">
         <f>LEN(E2)</f>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="F3" t="str">
         <f>'Lesson File Xref'!J9</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/code-comments.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/code-comments.html</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G23" si="2">LEN(E3)</f>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="F4" t="str">
         <f>'Lesson File Xref'!J10</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/basic-syntax.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/basic-syntax.html</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="2"/>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="F5" t="str">
         <f>'Lesson File Xref'!J11</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/your-first-query.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/your-first-query.html</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="2"/>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F6" t="str">
         <f>'Lesson File Xref'!J12</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/filtering-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/filtering-data.html</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="2"/>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="F7" t="str">
         <f>'Lesson File Xref'!J13</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/sorting-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/sorting-data.html</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="2"/>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="F8" t="str">
         <f>'Lesson File Xref'!J14</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/complex-data-filtering.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/complex-data-filtering.html</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="2"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="F9" t="str">
         <f>'Lesson File Xref'!J15</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aliases.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/aliases.html</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="2"/>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="F10" t="str">
         <f>'Lesson File Xref'!J16</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/string-functions.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/string-functions.html</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" si="2"/>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="F11" t="str">
         <f>'Lesson File Xref'!J17</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/calculated-fields.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/calculated-fields.html</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" si="2"/>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="F12" t="str">
         <f>'Lesson File Xref'!J18</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/case-statement.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/case-statement.html</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" si="2"/>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="F13" t="str">
         <f>'Lesson File Xref'!J19</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregate-functions.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/aggregate-functions.html</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="2"/>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="F14" t="str">
         <f>'Lesson File Xref'!J20</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregating-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/aggregating-data.html</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" si="2"/>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="F15" t="str">
         <f>'Lesson File Xref'!J21</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/joining-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/joining-tables.html</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" si="2"/>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="F16" t="str">
         <f>'Lesson File Xref'!J22</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/combining-queries.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/combining-queries.html</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="2"/>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="F17" t="str">
         <f>'Lesson File Xref'!J23</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/subqueries.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/subqueries.html</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" si="2"/>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="F18" t="str">
         <f>'Lesson File Xref'!J24</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/creating-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/creating-data.html</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="2"/>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="F19" t="str">
         <f>'Lesson File Xref'!J25</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/updating-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/updating-data.html</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="2"/>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="F20" t="str">
         <f>'Lesson File Xref'!J26</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/deleting-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/deleting-data.html</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="2"/>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="F21" t="str">
         <f>'Lesson File Xref'!J27</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/cte.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/cte.html</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" si="2"/>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="F22" t="str">
         <f>'Lesson File Xref'!J28</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/derived-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/derived-tables.html</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" si="2"/>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="F23" t="str">
         <f>'Lesson File Xref'!J29</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/putting-it-all-together.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/putting-it-all-together.html</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" si="2"/>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="F24" t="str">
         <f>'Lesson File Xref'!J30</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/selecting-unique-values.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/selecting-unique-values.html</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" ref="G24:G68" si="5">LEN(E24)</f>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="F25" t="str">
         <f>'Lesson File Xref'!J31</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/update-with-join.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/update-with-join.html</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" si="5"/>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="F26" t="str">
         <f>'Lesson File Xref'!J32</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/data-types.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/data-types.html</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" si="5"/>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="F27" t="str">
         <f>'Lesson File Xref'!J33</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/casting-data-types.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/casting-data-types.html</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="5"/>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="F28" t="str">
         <f>'Lesson File Xref'!J34</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/creating-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/creating-tables.html</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" si="5"/>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="F29" t="str">
         <f>'Lesson File Xref'!J35</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/altering-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/altering-tables.html</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" si="5"/>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="F30" t="str">
         <f>'Lesson File Xref'!J36</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dropping-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/dropping-tables.html</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" si="5"/>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="F31" t="str">
         <f>'Lesson File Xref'!J37</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/variables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/variables.html</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" si="5"/>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="F32" t="str">
         <f>'Lesson File Xref'!J38</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/controlling-flow.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/controlling-flow.html</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" si="5"/>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="F33" t="str">
         <f>'Lesson File Xref'!J39</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/looping.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/looping.html</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" si="5"/>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="F34" t="str">
         <f>'Lesson File Xref'!J40</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/error-processing.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/error-processing.html</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" si="5"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="F35" t="str">
         <f>'Lesson File Xref'!J41</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/temp-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/temp-tables.html</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" si="5"/>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="F36" t="str">
         <f>'Lesson File Xref'!J42</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/views.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/views.html</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" si="5"/>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="F37" t="str">
         <f>'Lesson File Xref'!J43</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/indexed-views.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/indexed-views.html</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" si="5"/>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="F38" t="str">
         <f>'Lesson File Xref'!J44</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/user-defined-functions.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/user-defined-functions.html</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" si="5"/>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="F39" t="str">
         <f>'Lesson File Xref'!J45</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/stored-procedures.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/stored-procedures.html</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="5"/>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="F40" t="str">
         <f>'Lesson File Xref'!J46</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/bulk-insert.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/bulk-insert.html</v>
       </c>
       <c r="G40" s="16">
         <f t="shared" si="5"/>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="F41" t="str">
         <f>'Lesson File Xref'!J47</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/loading-tables-with-merge.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/loading-tables-with-merge.html</v>
       </c>
       <c r="G41" s="16">
         <f t="shared" si="5"/>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="F42" t="str">
         <f>'Lesson File Xref'!J48</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/partitioning-a-dataset.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/partitioning-a-dataset.html</v>
       </c>
       <c r="G42" s="16">
         <f t="shared" si="5"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="F43" t="str">
         <f>'Lesson File Xref'!J49</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/pivoting-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/pivoting-data.html</v>
       </c>
       <c r="G43" s="16">
         <f t="shared" si="5"/>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="F44" t="str">
         <f>'Lesson File Xref'!J50</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dynamic-sql.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/dynamic-sql.html</v>
       </c>
       <c r="G44" s="16">
         <f t="shared" si="5"/>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="F45" t="str">
         <f>'Lesson File Xref'!J51</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/cursors.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/cursors.html</v>
       </c>
       <c r="G45" s="16">
         <f t="shared" si="5"/>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F46" t="str">
         <f>'Lesson File Xref'!J52</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/list-all-tables.html</v>
       </c>
       <c r="G46" s="16">
         <f t="shared" si="5"/>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="F47" t="str">
         <f>'Lesson File Xref'!J53</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-columns.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/list-all-columns.html</v>
       </c>
       <c r="G47" s="16">
         <f t="shared" si="5"/>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="F48" t="str">
         <f>'Lesson File Xref'!J54</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/pull-random-records.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/pull-random-records.html</v>
       </c>
       <c r="G48" s="16">
         <f t="shared" si="5"/>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="F49" t="str">
         <f>'Lesson File Xref'!J55</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/with-nolock-alternative.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/with-nolock-alternative.html</v>
       </c>
       <c r="G49" s="16">
         <f t="shared" si="5"/>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="F50" t="str">
         <f>'Lesson File Xref'!J56</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/boost-performance.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/boost-performance.html</v>
       </c>
       <c r="G50" s="16">
         <f t="shared" si="5"/>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="F51" t="str">
         <f>'Lesson File Xref'!J57</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/ablation-testing.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/ablation-testing.html</v>
       </c>
       <c r="G51" s="16">
         <f t="shared" si="5"/>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="F52" t="str">
         <f>'Lesson File Xref'!J58</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/default-column-values.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/default-column-values.html</v>
       </c>
       <c r="G52" s="16">
         <f t="shared" si="5"/>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="F53" t="str">
         <f>'Lesson File Xref'!J59</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/removing-dups.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/removing-dups.html</v>
       </c>
       <c r="G53" s="16">
         <f t="shared" si="5"/>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="F54" t="str">
         <f>'Lesson File Xref'!J60</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/clustered-index.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/clustered-index.html</v>
       </c>
       <c r="G54" s="16">
         <f t="shared" si="5"/>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="F55" t="str">
         <f>'Lesson File Xref'!J61</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/convert-dates.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/convert-dates.html</v>
       </c>
       <c r="G55" s="16">
         <f t="shared" si="5"/>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="F56" t="str">
         <f>'Lesson File Xref'!J62</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/notification-emails.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/notification-emails.html</v>
       </c>
       <c r="G56" s="16">
         <f t="shared" si="5"/>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="F57" t="str">
         <f>'Lesson File Xref'!J63</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/troubleshoot-queries.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/troubleshoot-queries.html</v>
       </c>
       <c r="G57" s="16">
         <f t="shared" si="5"/>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F58" t="str">
         <f>'Lesson File Xref'!J64</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-large-files.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/load-large-files.html</v>
       </c>
       <c r="G58" s="16">
         <f t="shared" si="5"/>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="F59" t="str">
         <f>'Lesson File Xref'!J65</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/only-use-for-cursors.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/only-use-for-cursors.html</v>
       </c>
       <c r="G59" s="16">
         <f t="shared" si="5"/>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="F60" t="str">
         <f>'Lesson File Xref'!J66</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/load-typeII-dimension.html</v>
       </c>
       <c r="G60" s="16">
         <f t="shared" si="5"/>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="F61" t="str">
         <f>'Lesson File Xref'!J67</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/numeric-parameters.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/numeric-parameters.html</v>
       </c>
       <c r="G61" s="16">
         <f t="shared" si="5"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="F62" t="str">
         <f>'Lesson File Xref'!J68</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/cant-join-on-null.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/cant-join-on-null.html</v>
       </c>
       <c r="G62" s="16">
         <f t="shared" si="5"/>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="F63" t="str">
         <f>'Lesson File Xref'!J69</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/where-clause-deep-dive.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/where-clause-deep-dive.html</v>
       </c>
       <c r="G63" s="16">
         <f t="shared" si="5"/>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="F64" t="str">
         <f>'Lesson File Xref'!J70</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashbytes-for-string-comparison.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/hashbytes-for-string-comparison.html</v>
       </c>
       <c r="G64" s="16">
         <f t="shared" si="5"/>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="F65" t="str">
         <f>'Lesson File Xref'!J71</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashing-multiple-columns.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/hashing-multiple-columns.html</v>
       </c>
       <c r="G65" s="16">
         <f t="shared" si="5"/>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="F66" t="str">
         <f>'Lesson File Xref'!J72</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/sql-style-guide.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/sql-style-guide.html</v>
       </c>
       <c r="G66" s="16">
         <f t="shared" si="5"/>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="F67" t="str">
         <f>'Lesson File Xref'!J73</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/data-warehouse-standup.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/data-warehouse-standup.html</v>
       </c>
       <c r="G67" s="16">
         <f t="shared" si="5"/>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="F68" t="str">
         <f>'Lesson File Xref'!J74</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html</v>
       </c>
       <c r="G68" s="16">
         <f t="shared" si="5"/>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="F69" t="str">
         <f>'Lesson File Xref'!J75</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/prepopulating-a-junk-dimension.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/prepopulating-a-junk-dimension.html</v>
       </c>
       <c r="G69" s="16">
         <f t="shared" ref="G69" si="7">LEN(E69)</f>
@@ -6438,8 +6438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BF53C0-7C83-45CD-8021-9C20EB183433}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6499,12 +6499,12 @@
       </c>
       <c r="F2" t="str">
         <f>'Lesson File Xref'!J8</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/hello-world.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/hello-world.html</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G3" si="1">E2&amp;CHAR(10)&amp;CHAR(10)&amp;F2&amp;CHAR(10)</f>
+        <f>E2&amp;CHAR(10)&amp;CHAR(10)&amp;F2&amp;CHAR(10)</f>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 1, we're going to talk about the inevitable obligatory hello world.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/hello-world.html
+https://learn.massstreet.net/transact-sql/basic/hello-world.html
 </v>
       </c>
     </row>
@@ -6531,12 +6531,12 @@
       </c>
       <c r="F3" t="str">
         <f>'Lesson File Xref'!J9</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/code-comments.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/code-comments.html</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G2:G3" si="1">E3&amp;CHAR(10)&amp;CHAR(10)&amp;F3&amp;CHAR(10)</f>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 2, we're going to talk about code comments.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/code-comments.html
+https://learn.massstreet.net/transact-sql/basic/code-comments.html
 </v>
       </c>
     </row>
@@ -6563,12 +6563,12 @@
       </c>
       <c r="F4" t="str">
         <f>'Lesson File Xref'!J10</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/basic-syntax.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/basic-syntax.html</v>
       </c>
       <c r="G4" t="str">
         <f>E4&amp;CHAR(10)&amp;CHAR(10)&amp;F4&amp;CHAR(10)</f>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 3, we're going to talk about basic syntax.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/basic-syntax.html
+https://learn.massstreet.net/transact-sql/basic/basic-syntax.html
 </v>
       </c>
     </row>
@@ -6595,12 +6595,12 @@
       </c>
       <c r="F5" t="str">
         <f>'Lesson File Xref'!J11</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/your-first-query.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/your-first-query.html</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5:G68" si="2">E5&amp;CHAR(10)&amp;CHAR(10)&amp;F5&amp;CHAR(10)</f>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 4, we're going to talk about your first query.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/your-first-query.html
+https://learn.massstreet.net/transact-sql/basic/your-first-query.html
 </v>
       </c>
     </row>
@@ -6627,12 +6627,12 @@
       </c>
       <c r="F6" t="str">
         <f>'Lesson File Xref'!J12</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/filtering-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/filtering-data.html</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 5, we're going to talk about filtering data.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/filtering-data.html
+https://learn.massstreet.net/transact-sql/basic/filtering-data.html
 </v>
       </c>
     </row>
@@ -6659,12 +6659,12 @@
       </c>
       <c r="F7" t="str">
         <f>'Lesson File Xref'!J13</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/sorting-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/sorting-data.html</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 6, we're going to talk about sorting data.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/sorting-data.html
+https://learn.massstreet.net/transact-sql/basic/sorting-data.html
 </v>
       </c>
     </row>
@@ -6691,12 +6691,12 @@
       </c>
       <c r="F8" t="str">
         <f>'Lesson File Xref'!J14</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/complex-data-filtering.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/complex-data-filtering.html</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 7, we're going to talk about complex data filtering.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/complex-data-filtering.html
+https://learn.massstreet.net/transact-sql/basic/complex-data-filtering.html
 </v>
       </c>
     </row>
@@ -6723,12 +6723,12 @@
       </c>
       <c r="F9" t="str">
         <f>'Lesson File Xref'!J15</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aliases.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/aliases.html</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 8, we're going to talk about aliases.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/aliases.html
+https://learn.massstreet.net/transact-sql/basic/aliases.html
 </v>
       </c>
     </row>
@@ -6755,12 +6755,12 @@
       </c>
       <c r="F10" t="str">
         <f>'Lesson File Xref'!J16</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/string-functions.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/string-functions.html</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 9, we're going to talk about string functions.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/string-functions.html
+https://learn.massstreet.net/transact-sql/basic/string-functions.html
 </v>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="F11" t="str">
         <f>'Lesson File Xref'!J17</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/calculated-fields.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/calculated-fields.html</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 10, we're going to talk about creating new columns from existing data (calculated fields).
-https://tutorials.massstreetuniversity.com/transact-sql/basic/calculated-fields.html
+https://learn.massstreet.net/transact-sql/basic/calculated-fields.html
 </v>
       </c>
     </row>
@@ -6819,12 +6819,12 @@
       </c>
       <c r="F12" t="str">
         <f>'Lesson File Xref'!J18</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/case-statement.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/case-statement.html</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 11, we're going to talk about displaying data based on conditions (case statement).
-https://tutorials.massstreetuniversity.com/transact-sql/basic/case-statement.html
+https://learn.massstreet.net/transact-sql/basic/case-statement.html
 </v>
       </c>
     </row>
@@ -6851,12 +6851,12 @@
       </c>
       <c r="F13" t="str">
         <f>'Lesson File Xref'!J19</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregate-functions.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/aggregate-functions.html</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 12, we're going to talk about aggregate functions.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregate-functions.html
+https://learn.massstreet.net/transact-sql/basic/aggregate-functions.html
 </v>
       </c>
     </row>
@@ -6883,12 +6883,12 @@
       </c>
       <c r="F14" t="str">
         <f>'Lesson File Xref'!J20</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregating-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/aggregating-data.html</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 13, we're going to talk about grouping and summarizing data.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregating-data.html
+https://learn.massstreet.net/transact-sql/basic/aggregating-data.html
 </v>
       </c>
     </row>
@@ -6915,12 +6915,12 @@
       </c>
       <c r="F15" t="str">
         <f>'Lesson File Xref'!J21</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/joining-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/joining-tables.html</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 14, we're going to talk about querying more than one table.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/joining-tables.html
+https://learn.massstreet.net/transact-sql/basic/joining-tables.html
 </v>
       </c>
     </row>
@@ -6947,12 +6947,12 @@
       </c>
       <c r="F16" t="str">
         <f>'Lesson File Xref'!J22</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/combining-queries.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/combining-queries.html</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 15, we're going to talk about combining queries.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/combining-queries.html
+https://learn.massstreet.net/transact-sql/basic/combining-queries.html
 </v>
       </c>
     </row>
@@ -6979,12 +6979,12 @@
       </c>
       <c r="F17" t="str">
         <f>'Lesson File Xref'!J23</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/subqueries.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/subqueries.html</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 16, we're going to talk about subqueries.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/subqueries.html
+https://learn.massstreet.net/transact-sql/basic/subqueries.html
 </v>
       </c>
     </row>
@@ -7011,12 +7011,12 @@
       </c>
       <c r="F18" t="str">
         <f>'Lesson File Xref'!J24</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/creating-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/creating-data.html</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 17, we're going to talk about creating data.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/creating-data.html
+https://learn.massstreet.net/transact-sql/basic/creating-data.html
 </v>
       </c>
     </row>
@@ -7043,12 +7043,12 @@
       </c>
       <c r="F19" t="str">
         <f>'Lesson File Xref'!J25</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/updating-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/updating-data.html</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 18, we're going to talk about updating data.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/updating-data.html
+https://learn.massstreet.net/transact-sql/basic/updating-data.html
 </v>
       </c>
     </row>
@@ -7075,12 +7075,12 @@
       </c>
       <c r="F20" t="str">
         <f>'Lesson File Xref'!J26</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/deleting-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/deleting-data.html</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 19, we're going to talk about deleting data.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/deleting-data.html
+https://learn.massstreet.net/transact-sql/basic/deleting-data.html
 </v>
       </c>
     </row>
@@ -7107,12 +7107,12 @@
       </c>
       <c r="F21" t="str">
         <f>'Lesson File Xref'!J27</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/cte.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/cte.html</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 20, we're going to talk about common table expressions (ctes).
-https://tutorials.massstreetuniversity.com/transact-sql/basic/cte.html
+https://learn.massstreet.net/transact-sql/basic/cte.html
 </v>
       </c>
     </row>
@@ -7139,12 +7139,12 @@
       </c>
       <c r="F22" t="str">
         <f>'Lesson File Xref'!J28</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/derived-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/derived-tables.html</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 21, we're going to talk about derived tables.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/derived-tables.html
+https://learn.massstreet.net/transact-sql/basic/derived-tables.html
 </v>
       </c>
     </row>
@@ -7171,12 +7171,12 @@
       </c>
       <c r="F23" t="str">
         <f>'Lesson File Xref'!J29</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/basic/putting-it-all-together.html</v>
+        <v>https://learn.massstreet.net/transact-sql/basic/putting-it-all-together.html</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 22, we're going to talk about putting it all together.
-https://tutorials.massstreetuniversity.com/transact-sql/basic/putting-it-all-together.html
+https://learn.massstreet.net/transact-sql/basic/putting-it-all-together.html
 </v>
       </c>
     </row>
@@ -7203,12 +7203,12 @@
       </c>
       <c r="F24" t="str">
         <f>'Lesson File Xref'!J30</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/selecting-unique-values.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/selecting-unique-values.html</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 23, we're going to talk about selecting unique values.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/selecting-unique-values.html
+https://learn.massstreet.net/transact-sql/advanced/selecting-unique-values.html
 </v>
       </c>
     </row>
@@ -7235,12 +7235,12 @@
       </c>
       <c r="F25" t="str">
         <f>'Lesson File Xref'!J31</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/update-with-join.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/update-with-join.html</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 24, we're going to talk about updating data with a join.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/update-with-join.html
+https://learn.massstreet.net/transact-sql/advanced/update-with-join.html
 </v>
       </c>
     </row>
@@ -7267,12 +7267,12 @@
       </c>
       <c r="F26" t="str">
         <f>'Lesson File Xref'!J32</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/data-types.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/data-types.html</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 25, we're going to talk about data types.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/data-types.html
+https://learn.massstreet.net/transact-sql/advanced/data-types.html
 </v>
       </c>
     </row>
@@ -7299,12 +7299,12 @@
       </c>
       <c r="F27" t="str">
         <f>'Lesson File Xref'!J33</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/casting-data-types.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/casting-data-types.html</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 26, we're going to talk about casting data types.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/casting-data-types.html
+https://learn.massstreet.net/transact-sql/advanced/casting-data-types.html
 </v>
       </c>
     </row>
@@ -7331,12 +7331,12 @@
       </c>
       <c r="F28" t="str">
         <f>'Lesson File Xref'!J34</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/creating-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/creating-tables.html</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 27, we're going to talk about creating tables.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/creating-tables.html
+https://learn.massstreet.net/transact-sql/advanced/creating-tables.html
 </v>
       </c>
     </row>
@@ -7363,12 +7363,12 @@
       </c>
       <c r="F29" t="str">
         <f>'Lesson File Xref'!J35</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/altering-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/altering-tables.html</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 28, we're going to talk about altering tables.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/altering-tables.html
+https://learn.massstreet.net/transact-sql/advanced/altering-tables.html
 </v>
       </c>
     </row>
@@ -7395,12 +7395,12 @@
       </c>
       <c r="F30" t="str">
         <f>'Lesson File Xref'!J36</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dropping-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/dropping-tables.html</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 29, we're going to talk about dropping tables.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/dropping-tables.html
+https://learn.massstreet.net/transact-sql/advanced/dropping-tables.html
 </v>
       </c>
     </row>
@@ -7427,12 +7427,12 @@
       </c>
       <c r="F31" t="str">
         <f>'Lesson File Xref'!J37</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/variables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/variables.html</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 30, we're going to talk about variables.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/variables.html
+https://learn.massstreet.net/transact-sql/advanced/variables.html
 </v>
       </c>
     </row>
@@ -7459,12 +7459,12 @@
       </c>
       <c r="F32" t="str">
         <f>'Lesson File Xref'!J38</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/controlling-flow.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/controlling-flow.html</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 31, we're going to talk about controlling flow.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/controlling-flow.html
+https://learn.massstreet.net/transact-sql/advanced/controlling-flow.html
 </v>
       </c>
     </row>
@@ -7491,12 +7491,12 @@
       </c>
       <c r="F33" t="str">
         <f>'Lesson File Xref'!J39</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/looping.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/looping.html</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 32, we're going to talk about looping.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/looping.html
+https://learn.massstreet.net/transact-sql/advanced/looping.html
 </v>
       </c>
     </row>
@@ -7523,12 +7523,12 @@
       </c>
       <c r="F34" t="str">
         <f>'Lesson File Xref'!J40</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/error-processing.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/error-processing.html</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 33, we're going to talk about error processing.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/error-processing.html
+https://learn.massstreet.net/transact-sql/advanced/error-processing.html
 </v>
       </c>
     </row>
@@ -7555,12 +7555,12 @@
       </c>
       <c r="F35" t="str">
         <f>'Lesson File Xref'!J41</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/temp-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/temp-tables.html</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 34, we're going to talk about temporary tables.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/temp-tables.html
+https://learn.massstreet.net/transact-sql/advanced/temp-tables.html
 </v>
       </c>
     </row>
@@ -7587,12 +7587,12 @@
       </c>
       <c r="F36" t="str">
         <f>'Lesson File Xref'!J42</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/views.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/views.html</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 35, we're going to talk about views.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/views.html
+https://learn.massstreet.net/transact-sql/advanced/views.html
 </v>
       </c>
     </row>
@@ -7619,12 +7619,12 @@
       </c>
       <c r="F37" t="str">
         <f>'Lesson File Xref'!J43</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/indexed-views.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/indexed-views.html</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 36, we're going to talk about indexed views.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/indexed-views.html
+https://learn.massstreet.net/transact-sql/advanced/indexed-views.html
 </v>
       </c>
     </row>
@@ -7651,12 +7651,12 @@
       </c>
       <c r="F38" t="str">
         <f>'Lesson File Xref'!J44</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/user-defined-functions.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/user-defined-functions.html</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 37, we're going to talk about user defined functions.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/user-defined-functions.html
+https://learn.massstreet.net/transact-sql/advanced/user-defined-functions.html
 </v>
       </c>
     </row>
@@ -7683,12 +7683,12 @@
       </c>
       <c r="F39" t="str">
         <f>'Lesson File Xref'!J45</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/stored-procedures.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/stored-procedures.html</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 38, we're going to talk about stored procedures.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/stored-procedures.html
+https://learn.massstreet.net/transact-sql/advanced/stored-procedures.html
 </v>
       </c>
     </row>
@@ -7715,12 +7715,12 @@
       </c>
       <c r="F40" t="str">
         <f>'Lesson File Xref'!J46</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/bulk-insert.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/bulk-insert.html</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 39, we're going to talk about bulk insert.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/bulk-insert.html
+https://learn.massstreet.net/transact-sql/advanced/bulk-insert.html
 </v>
       </c>
     </row>
@@ -7747,12 +7747,12 @@
       </c>
       <c r="F41" t="str">
         <f>'Lesson File Xref'!J47</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/loading-tables-with-merge.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/loading-tables-with-merge.html</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 40, we're going to talk about loading tables with merge.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/loading-tables-with-merge.html
+https://learn.massstreet.net/transact-sql/advanced/loading-tables-with-merge.html
 </v>
       </c>
     </row>
@@ -7779,12 +7779,12 @@
       </c>
       <c r="F42" t="str">
         <f>'Lesson File Xref'!J48</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/partitioning-a-dataset.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/partitioning-a-dataset.html</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 41, we're going to talk about partitioning a dataset.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/partitioning-a-dataset.html
+https://learn.massstreet.net/transact-sql/advanced/partitioning-a-dataset.html
 </v>
       </c>
     </row>
@@ -7811,12 +7811,12 @@
       </c>
       <c r="F43" t="str">
         <f>'Lesson File Xref'!J49</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/pivoting-data.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/pivoting-data.html</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 42, we're going to talk about pivoting data.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/pivoting-data.html
+https://learn.massstreet.net/transact-sql/advanced/pivoting-data.html
 </v>
       </c>
     </row>
@@ -7843,12 +7843,12 @@
       </c>
       <c r="F44" t="str">
         <f>'Lesson File Xref'!J50</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/dynamic-sql.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/dynamic-sql.html</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 43, we're going to talk about dynamic sql.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/dynamic-sql.html
+https://learn.massstreet.net/transact-sql/advanced/dynamic-sql.html
 </v>
       </c>
     </row>
@@ -7875,12 +7875,12 @@
       </c>
       <c r="F45" t="str">
         <f>'Lesson File Xref'!J51</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/advanced/cursors.html</v>
+        <v>https://learn.massstreet.net/transact-sql/advanced/cursors.html</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 44, we're going to talk about cursors.
-https://tutorials.massstreetuniversity.com/transact-sql/advanced/cursors.html
+https://learn.massstreet.net/transact-sql/advanced/cursors.html
 </v>
       </c>
     </row>
@@ -7907,12 +7907,12 @@
       </c>
       <c r="F46" t="str">
         <f>'Lesson File Xref'!J52</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-tables.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/list-all-tables.html</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 45, we're going to talk about listing all tables in a sql server database.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-tables.html
+https://learn.massstreet.net/transact-sql/solutions/list-all-tables.html
 </v>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       </c>
       <c r="F47" t="str">
         <f>'Lesson File Xref'!J53</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-columns.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/list-all-columns.html</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 46, we're going to talk about listing all columns in a sql server database.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-columns.html
+https://learn.massstreet.net/transact-sql/solutions/list-all-columns.html
 </v>
       </c>
     </row>
@@ -7971,12 +7971,12 @@
       </c>
       <c r="F48" t="str">
         <f>'Lesson File Xref'!J54</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/pull-random-records.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/pull-random-records.html</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 47, we're going to talk about pull records from a table at random.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/pull-random-records.html
+https://learn.massstreet.net/transact-sql/solutions/pull-random-records.html
 </v>
       </c>
     </row>
@@ -8003,12 +8003,12 @@
       </c>
       <c r="F49" t="str">
         <f>'Lesson File Xref'!J55</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/with-nolock-alternative.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/with-nolock-alternative.html</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 48, we're going to talk about a better alternative to with (nolock).
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/with-nolock-alternative.html
+https://learn.massstreet.net/transact-sql/solutions/with-nolock-alternative.html
 </v>
       </c>
     </row>
@@ -8035,12 +8035,12 @@
       </c>
       <c r="F50" t="str">
         <f>'Lesson File Xref'!J56</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/boost-performance.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/boost-performance.html</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 49, we're going to talk about boost performance when calling a stored proc from ssis.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/boost-performance.html
+https://learn.massstreet.net/transact-sql/solutions/boost-performance.html
 </v>
       </c>
     </row>
@@ -8067,12 +8067,12 @@
       </c>
       <c r="F51" t="str">
         <f>'Lesson File Xref'!J57</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/ablation-testing.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/ablation-testing.html</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 50, we're going to talk about setting up queries for ablation testing.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/ablation-testing.html
+https://learn.massstreet.net/transact-sql/solutions/ablation-testing.html
 </v>
       </c>
     </row>
@@ -8099,12 +8099,12 @@
       </c>
       <c r="F52" t="str">
         <f>'Lesson File Xref'!J58</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/default-column-values.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/default-column-values.html</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 51, we're going to talk about reduce code and save time with default column values.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/default-column-values.html
+https://learn.massstreet.net/transact-sql/solutions/default-column-values.html
 </v>
       </c>
     </row>
@@ -8131,12 +8131,12 @@
       </c>
       <c r="F53" t="str">
         <f>'Lesson File Xref'!J59</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/removing-dups.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/removing-dups.html</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 52, we're going to talk about finding duplicate records in a table.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/removing-dups.html
+https://learn.massstreet.net/transact-sql/solutions/removing-dups.html
 </v>
       </c>
     </row>
@@ -8163,12 +8163,12 @@
       </c>
       <c r="F54" t="str">
         <f>'Lesson File Xref'!J60</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/clustered-index.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/clustered-index.html</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 53, we're going to talk about why you cannot have more than one clustered index on a table.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/clustered-index.html
+https://learn.massstreet.net/transact-sql/solutions/clustered-index.html
 </v>
       </c>
     </row>
@@ -8195,12 +8195,12 @@
       </c>
       <c r="F55" t="str">
         <f>'Lesson File Xref'!J61</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/convert-dates.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/convert-dates.html</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 54, we're going to talk about converting dates to yyyymmdd.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/convert-dates.html
+https://learn.massstreet.net/transact-sql/solutions/convert-dates.html
 </v>
       </c>
     </row>
@@ -8227,12 +8227,12 @@
       </c>
       <c r="F56" t="str">
         <f>'Lesson File Xref'!J62</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/notification-emails.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/notification-emails.html</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 55, we're going to talk about sending notification emails with t-sql without using hardcoded email addresses.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/notification-emails.html
+https://learn.massstreet.net/transact-sql/solutions/notification-emails.html
 </v>
       </c>
     </row>
@@ -8259,12 +8259,12 @@
       </c>
       <c r="F57" t="str">
         <f>'Lesson File Xref'!J63</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/troubleshoot-queries.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/troubleshoot-queries.html</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 56, we're going to talk about troubleshooting long running queries.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/troubleshoot-queries.html
+https://learn.massstreet.net/transact-sql/solutions/troubleshoot-queries.html
 </v>
       </c>
     </row>
@@ -8291,12 +8291,12 @@
       </c>
       <c r="F58" t="str">
         <f>'Lesson File Xref'!J64</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-large-files.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/load-large-files.html</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 57, we're going to talk about loading large csvs into data warehouse staging tables.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-large-files.html
+https://learn.massstreet.net/transact-sql/solutions/load-large-files.html
 </v>
       </c>
     </row>
@@ -8323,12 +8323,12 @@
       </c>
       <c r="F59" t="str">
         <f>'Lesson File Xref'!J65</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/only-use-for-cursors.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/only-use-for-cursors.html</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 58, we're going to talk about the only bloody good reason to use cursors (aka moving large amounts of data between tables).
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/only-use-for-cursors.html
+https://learn.massstreet.net/transact-sql/solutions/only-use-for-cursors.html
 </v>
       </c>
     </row>
@@ -8355,12 +8355,12 @@
       </c>
       <c r="F60" t="str">
         <f>'Lesson File Xref'!J66</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/load-typeII-dimension.html</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 59, we're going to talk about loading a type ii slowly changing dimension with sql merge.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html
+https://learn.massstreet.net/transact-sql/solutions/load-typeII-dimension.html
 </v>
       </c>
     </row>
@@ -8387,12 +8387,12 @@
       </c>
       <c r="F61" t="str">
         <f>'Lesson File Xref'!J67</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/numeric-parameters.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/numeric-parameters.html</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 60, we're going to talk about a clearer explanation of the parameters of the numeric data type.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/numeric-parameters.html
+https://learn.massstreet.net/transact-sql/solutions/numeric-parameters.html
 </v>
       </c>
     </row>
@@ -8419,12 +8419,12 @@
       </c>
       <c r="F62" t="str">
         <f>'Lesson File Xref'!J68</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/cant-join-on-null.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/cant-join-on-null.html</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 61, we're going to talk about why you cannot join on null values.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/cant-join-on-null.html
+https://learn.massstreet.net/transact-sql/solutions/cant-join-on-null.html
 </v>
       </c>
     </row>
@@ -8451,12 +8451,12 @@
       </c>
       <c r="F63" t="str">
         <f>'Lesson File Xref'!J69</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/where-clause-deep-dive.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/where-clause-deep-dive.html</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 62, we're going to talk about a deep dive on how the where clause functions.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/where-clause-deep-dive.html
+https://learn.massstreet.net/transact-sql/solutions/where-clause-deep-dive.html
 </v>
       </c>
     </row>
@@ -8483,12 +8483,12 @@
       </c>
       <c r="F64" t="str">
         <f>'Lesson File Xref'!J70</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashbytes-for-string-comparison.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/hashbytes-for-string-comparison.html</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 63, we're going to talk about using hashbytes() to compare character strings.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashbytes-for-string-comparison.html
+https://learn.massstreet.net/transact-sql/solutions/hashbytes-for-string-comparison.html
 </v>
       </c>
     </row>
@@ -8515,12 +8515,12 @@
       </c>
       <c r="F65" t="str">
         <f>'Lesson File Xref'!J71</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashing-multiple-columns.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/hashing-multiple-columns.html</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 64, we're going to talk about using pipe to hash multiple columns for matching.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashing-multiple-columns.html
+https://learn.massstreet.net/transact-sql/solutions/hashing-multiple-columns.html
 </v>
       </c>
     </row>
@@ -8547,12 +8547,12 @@
       </c>
       <c r="F66" t="str">
         <f>'Lesson File Xref'!J72</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/sql-style-guide.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/sql-style-guide.html</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 65, we're going to talk about why people that indent code drive me nuts (aka a recommended sql style guide).
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/sql-style-guide.html
+https://learn.massstreet.net/transact-sql/solutions/sql-style-guide.html
 </v>
       </c>
     </row>
@@ -8579,12 +8579,12 @@
       </c>
       <c r="F67" t="str">
         <f>'Lesson File Xref'!J73</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/data-warehouse-standup.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/data-warehouse-standup.html</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 66, we're going to talk about how to rapidly stand up a data warehouse from scratch.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/data-warehouse-standup.html
+https://learn.massstreet.net/transact-sql/solutions/data-warehouse-standup.html
 </v>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="F68" t="str">
         <f>'Lesson File Xref'!J74</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 67, we're going to talk about how to pivot data with t-sql when columns are not predefined.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html
+https://learn.massstreet.net/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html
 </v>
       </c>
     </row>
@@ -8643,12 +8643,12 @@
       </c>
       <c r="F69" t="str">
         <f>'Lesson File Xref'!J75</f>
-        <v>https://tutorials.massstreetuniversity.com/transact-sql/solutions/prepopulating-a-junk-dimension.html</v>
+        <v>https://learn.massstreet.net/transact-sql/solutions/prepopulating-a-junk-dimension.html</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" ref="G69" si="4">E69&amp;CHAR(10)&amp;CHAR(10)&amp;F69&amp;CHAR(10)</f>
         <v xml:space="preserve">Here is your daily T-SQL lesson! Today in lesson 68, we're going to talk about prepopulating a junk dimension.
-https://tutorials.massstreetuniversity.com/transact-sql/solutions/prepopulating-a-junk-dimension.html
+https://learn.massstreet.net/transact-sql/solutions/prepopulating-a-junk-dimension.html
 </v>
       </c>
     </row>
@@ -8733,8 +8733,8 @@
         <v>I</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G33" si="0">"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/""&gt;Tutorial Home&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/"&amp;B2&amp;"/"&amp;C2&amp;"""&gt;Previous&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/"&amp;D2&amp;"/"&amp;E2&amp;"""&gt;Next&lt;/a&gt;"</f>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql//"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/ii-tutorial-overview.html"&gt;Next&lt;/a&gt;</v>
+        <f t="shared" ref="G2:G33" si="0">"&lt;a href=""https://learn.massstreet.net/transact-sql/""&gt;Tutorial Home&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://learn.massstreet.net/transact-sql/"&amp;B2&amp;"/"&amp;C2&amp;"""&gt;Previous&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://learn.massstreet.net/transact-sql/"&amp;D2&amp;"/"&amp;E2&amp;"""&gt;Next&lt;/a&gt;"</f>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql//"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/ii-tutorial-overview.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/i-authors-note.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/iii-running-the-examples.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/i-authors-note.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/iii-running-the-examples.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/ii-tutorial-overview.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/iv-how-to-report-an-issue.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/ii-tutorial-overview.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/iv-how-to-report-an-issue.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/iii-running-the-examples.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/v-student-lounge.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/iii-running-the-examples.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/v-student-lounge.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8854,7 +8854,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/iv-how-to-report-an-issue.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/vi-supplimentary-material.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/iv-how-to-report-an-issue.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/vi-supplimentary-material.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/v-student-lounge.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/hello-world.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/v-student-lounge.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/hello-world.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/preface/vi-supplimentary-material.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/code-comments.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/preface/vi-supplimentary-material.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/code-comments.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/hello-world.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/basic-syntax.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/hello-world.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/basic-syntax.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/code-comments.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/your-first-query.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/code-comments.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/your-first-query.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/basic-syntax.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/filtering-data.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/basic-syntax.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/filtering-data.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/your-first-query.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/sorting-data.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/your-first-query.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/sorting-data.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/filtering-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/complex-data-filtering.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/filtering-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/complex-data-filtering.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/sorting-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/aliases.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/sorting-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/aliases.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/complex-data-filtering.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/string-functions.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/complex-data-filtering.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/string-functions.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/aliases.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/calculated-fields.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/aliases.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/calculated-fields.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/string-functions.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/case-statement.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/string-functions.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/case-statement.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/calculated-fields.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregate-functions.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/calculated-fields.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/aggregate-functions.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/case-statement.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregating-data.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/case-statement.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/aggregating-data.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -9274,7 +9274,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregate-functions.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/joining-tables.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/aggregate-functions.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/joining-tables.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/aggregating-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/combining-queries.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/aggregating-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/combining-queries.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/joining-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/subqueries.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/joining-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/subqueries.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -9364,7 +9364,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/combining-queries.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/creating-data.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/combining-queries.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/creating-data.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/subqueries.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/updating-data.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/subqueries.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/updating-data.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/creating-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/deleting-data.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/creating-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/deleting-data.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/updating-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/cte.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/updating-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/cte.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/deleting-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/derived-tables.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/deleting-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/derived-tables.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/cte.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/putting-it-all-together.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/cte.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/putting-it-all-together.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/derived-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/selecting-unique-values.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/derived-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/selecting-unique-values.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/basic/putting-it-all-together.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/update-with-join.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/basic/putting-it-all-together.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/update-with-join.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/selecting-unique-values.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/data-types.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/selecting-unique-values.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/data-types.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/update-with-join.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/casting-data-types.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/update-with-join.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/casting-data-types.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/data-types.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/creating-tables.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/data-types.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/creating-tables.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -9693,8 +9693,8 @@
         <v>27</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ref="G34:G65" si="1">"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/""&gt;Tutorial Home&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/"&amp;B34&amp;"/"&amp;C34&amp;"""&gt;Previous&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/"&amp;D34&amp;"/"&amp;E34&amp;"""&gt;Next&lt;/a&gt;"</f>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/casting-data-types.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/altering-tables.html"&gt;Next&lt;/a&gt;</v>
+        <f t="shared" ref="G34:G65" si="1">"&lt;a href=""https://learn.massstreet.net/transact-sql/""&gt;Tutorial Home&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://learn.massstreet.net/transact-sql/"&amp;B34&amp;"/"&amp;C34&amp;"""&gt;Previous&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://learn.massstreet.net/transact-sql/"&amp;D34&amp;"/"&amp;E34&amp;"""&gt;Next&lt;/a&gt;"</f>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/casting-data-types.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/altering-tables.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/creating-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/dropping-tables.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/creating-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/dropping-tables.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/altering-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/variables.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/altering-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/variables.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/dropping-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/controlling-flow.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/dropping-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/controlling-flow.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/variables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/looping.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/variables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/looping.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/controlling-flow.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/error-processing.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/controlling-flow.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/error-processing.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -9874,7 +9874,7 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/looping.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/temp-tables.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/looping.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/temp-tables.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/error-processing.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/views.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/error-processing.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/views.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -9934,7 +9934,7 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/temp-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/indexed-views.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/temp-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/indexed-views.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/views.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/user-defined-functions.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/views.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/user-defined-functions.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -9994,7 +9994,7 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/indexed-views.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/stored-procedures.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/indexed-views.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/stored-procedures.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/user-defined-functions.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/bulk-insert.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/user-defined-functions.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/bulk-insert.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/stored-procedures.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/loading-tables-with-merge.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/stored-procedures.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/loading-tables-with-merge.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/bulk-insert.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/partitioning-a-dataset.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/bulk-insert.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/partitioning-a-dataset.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/loading-tables-with-merge.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/pivoting-data.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/loading-tables-with-merge.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/pivoting-data.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/partitioning-a-dataset.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/dynamic-sql.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/partitioning-a-dataset.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/dynamic-sql.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/pivoting-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/cursors.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/pivoting-data.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/cursors.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/dynamic-sql.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-tables.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/dynamic-sql.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/list-all-tables.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/advanced/cursors.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-columns.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/advanced/cursors.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/list-all-columns.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/pull-random-records.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/list-all-tables.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/pull-random-records.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/list-all-columns.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/with-nolock-alternative.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/list-all-columns.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/with-nolock-alternative.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/pull-random-records.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/boost-performance.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/pull-random-records.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/boost-performance.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/with-nolock-alternative.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/ablation-testing.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/with-nolock-alternative.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/ablation-testing.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/boost-performance.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/default-column-values.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/boost-performance.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/default-column-values.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/ablation-testing.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/removing-dups.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/ablation-testing.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/removing-dups.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/default-column-values.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/clustered-index.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/default-column-values.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/clustered-index.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/removing-dups.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/convert-dates.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/removing-dups.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/convert-dates.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/clustered-index.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/notification-emails.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/clustered-index.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/notification-emails.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/convert-dates.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/troubleshoot-queries.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/convert-dates.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/troubleshoot-queries.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/notification-emails.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-large-files.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/notification-emails.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/load-large-files.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/troubleshoot-queries.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/only-use-for-cursors.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/troubleshoot-queries.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/only-use-for-cursors.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -10624,7 +10624,7 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-large-files.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/load-large-files.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/load-typeII-dimension.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -10653,8 +10653,8 @@
         <v>59</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G97" si="2">"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/""&gt;Tutorial Home&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/"&amp;B66&amp;"/"&amp;C66&amp;"""&gt;Previous&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/"&amp;D66&amp;"/"&amp;E66&amp;"""&gt;Next&lt;/a&gt;"</f>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/only-use-for-cursors.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/numeric-parameters.html"&gt;Next&lt;/a&gt;</v>
+        <f t="shared" ref="G66:G97" si="2">"&lt;a href=""https://learn.massstreet.net/transact-sql/""&gt;Tutorial Home&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://learn.massstreet.net/transact-sql/"&amp;B66&amp;"/"&amp;C66&amp;"""&gt;Previous&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://learn.massstreet.net/transact-sql/"&amp;D66&amp;"/"&amp;E66&amp;"""&gt;Next&lt;/a&gt;"</f>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/only-use-for-cursors.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/numeric-parameters.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/load-typeII-dimension.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/cant-join-on-null.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/load-typeII-dimension.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/cant-join-on-null.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/numeric-parameters.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/where-clause-deep-dive.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/numeric-parameters.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/where-clause-deep-dive.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/cant-join-on-null.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashbytes-for-string-comparison.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/cant-join-on-null.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/hashbytes-for-string-comparison.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/where-clause-deep-dive.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashing-multiple-columns.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/where-clause-deep-dive.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/hashing-multiple-columns.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashbytes-for-string-comparison.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/sql-style-guide.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/hashbytes-for-string-comparison.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/sql-style-guide.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/hashing-multiple-columns.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/data-warehouse-standup.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/hashing-multiple-columns.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/data-warehouse-standup.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/sql-style-guide.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/sql-style-guide.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -10894,7 +10894,7 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/data-warehouse-standup.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/prepopulating-a-junk-dimension.html"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/data-warehouse-standup.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/prepopulating-a-junk-dimension.html"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/how-to-pivot-an-unknown-number-of-columns.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/solutions/prepopulating-a-junk-dimension.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/solutions/prepopulating-a-junk-dimension.html"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -11014,7 +11014,7 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -11044,7 +11044,7 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -11524,7 +11524,7 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -11554,7 +11554,7 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -11613,8 +11613,8 @@
         <v>0</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" ref="G98:G112" si="3">"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/""&gt;Tutorial Home&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/"&amp;B98&amp;"/"&amp;C98&amp;"""&gt;Previous&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://tutorials.massstreetuniversity.com/transact-sql/"&amp;D98&amp;"/"&amp;E98&amp;"""&gt;Next&lt;/a&gt;"</f>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <f t="shared" ref="G98:G112" si="3">"&lt;a href=""https://learn.massstreet.net/transact-sql/""&gt;Tutorial Home&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://learn.massstreet.net/transact-sql/"&amp;B98&amp;"/"&amp;C98&amp;"""&gt;Previous&lt;/a&gt;"&amp;" | "&amp;"&lt;a href=""https://learn.massstreet.net/transact-sql/"&amp;D98&amp;"/"&amp;E98&amp;"""&gt;Next&lt;/a&gt;"</f>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -11794,7 +11794,7 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -11824,7 +11824,7 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -11914,7 +11914,7 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -11974,7 +11974,7 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -12004,7 +12004,7 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://tutorials.massstreetuniversity.com/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
+        <v>&lt;a href="https://learn.massstreet.net/transact-sql/"&gt;Tutorial Home&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Previous&lt;/a&gt; | &lt;a href="https://learn.massstreet.net/transact-sql/0/0"&gt;Next&lt;/a&gt;</v>
       </c>
     </row>
   </sheetData>
